--- a/data/teams_db.xlsx
+++ b/data/teams_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbrav\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbrav\BravoRanking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E97ED2-E1C6-41DE-9561-A85111FB947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC05A55-344B-494C-9D64-3E8D4FDCEE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1020" windowWidth="12915" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="563">
   <si>
     <t>team</t>
   </si>
@@ -1379,9 +1379,6 @@
     <t>NIU</t>
   </si>
   <si>
-    <t>AME</t>
-  </si>
-  <si>
     <t>CAY</t>
   </si>
   <si>
@@ -1710,6 +1707,21 @@
   </si>
   <si>
     <t>team_id</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>base</t>
   </si>
 </sst>
 </file>
@@ -2095,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G319"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,30 +2120,33 @@
     <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2142,13 +2157,16 @@
         <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2159,13 +2177,16 @@
         <v>321</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2176,13 +2197,16 @@
         <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2190,16 +2214,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2207,16 +2234,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" t="s">
         <v>460</v>
       </c>
-      <c r="D6" t="s">
-        <v>461</v>
-      </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2227,13 +2257,16 @@
         <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2244,13 +2277,16 @@
         <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2261,13 +2297,16 @@
         <v>326</v>
       </c>
       <c r="D9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2275,16 +2314,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2295,13 +2337,16 @@
         <v>328</v>
       </c>
       <c r="D11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2312,7 +2357,7 @@
         <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F12" s="4">
         <v>33969</v>
@@ -2320,8 +2365,11 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2332,13 +2380,16 @@
         <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2349,13 +2400,16 @@
         <v>331</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2363,16 +2417,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2380,16 +2437,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2400,13 +2460,16 @@
         <v>332</v>
       </c>
       <c r="D17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2417,13 +2480,16 @@
         <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2434,13 +2500,16 @@
         <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2451,13 +2520,16 @@
         <v>334</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2468,13 +2540,16 @@
         <v>335</v>
       </c>
       <c r="D21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2485,13 +2560,16 @@
         <v>336</v>
       </c>
       <c r="D22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2502,13 +2580,16 @@
         <v>337</v>
       </c>
       <c r="D23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2519,8 +2600,11 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2531,13 +2615,16 @@
         <v>338</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2548,13 +2635,16 @@
         <v>339</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2565,13 +2655,16 @@
         <v>340</v>
       </c>
       <c r="D27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2582,8 +2675,11 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2591,16 +2687,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" t="s">
         <v>466</v>
       </c>
-      <c r="D29" t="s">
-        <v>467</v>
-      </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2611,13 +2710,16 @@
         <v>341</v>
       </c>
       <c r="D30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2628,13 +2730,16 @@
         <v>342</v>
       </c>
       <c r="D31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2645,13 +2750,16 @@
         <v>343</v>
       </c>
       <c r="D32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2662,8 +2770,11 @@
       <c r="G33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2671,16 +2782,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2688,16 +2802,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2708,13 +2825,16 @@
         <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2725,7 +2845,7 @@
         <v>345</v>
       </c>
       <c r="D37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E37" s="4">
         <v>6910</v>
@@ -2736,8 +2856,11 @@
       <c r="G37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2748,13 +2871,16 @@
         <v>346</v>
       </c>
       <c r="D38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2762,16 +2888,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2782,13 +2911,16 @@
         <v>347</v>
       </c>
       <c r="D40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2799,8 +2931,11 @@
       <c r="G41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2808,16 +2943,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2825,16 +2963,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D43" t="s">
         <v>472</v>
       </c>
-      <c r="D43" t="s">
-        <v>473</v>
-      </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2845,13 +2986,16 @@
         <v>327</v>
       </c>
       <c r="D44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2862,13 +3006,16 @@
         <v>348</v>
       </c>
       <c r="D45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2879,8 +3026,11 @@
       <c r="G46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2891,8 +3041,11 @@
       <c r="G47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2903,13 +3056,16 @@
         <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2920,8 +3076,11 @@
       <c r="G49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2932,8 +3091,11 @@
       <c r="G50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2941,16 +3103,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2961,13 +3126,16 @@
         <v>351</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2978,13 +3146,16 @@
         <v>352</v>
       </c>
       <c r="D53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2995,13 +3166,16 @@
         <v>353</v>
       </c>
       <c r="D54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3012,13 +3186,16 @@
         <v>354</v>
       </c>
       <c r="D55" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3029,13 +3206,16 @@
         <v>355</v>
       </c>
       <c r="D56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3046,13 +3226,16 @@
         <v>356</v>
       </c>
       <c r="D57" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3060,16 +3243,19 @@
         <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3080,13 +3266,16 @@
         <v>357</v>
       </c>
       <c r="D59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3097,13 +3286,16 @@
         <v>358</v>
       </c>
       <c r="D60" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3111,16 +3303,19 @@
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3131,13 +3326,16 @@
         <v>359</v>
       </c>
       <c r="D62" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3148,13 +3346,16 @@
         <v>360</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3165,13 +3366,16 @@
         <v>361</v>
       </c>
       <c r="D64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3182,13 +3386,16 @@
         <v>362</v>
       </c>
       <c r="D65" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3199,13 +3406,16 @@
         <v>363</v>
       </c>
       <c r="D66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3216,13 +3426,16 @@
         <v>364</v>
       </c>
       <c r="D67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3233,13 +3446,16 @@
         <v>319</v>
       </c>
       <c r="D68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3247,16 +3463,19 @@
         <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>330</v>
+        <v>561</v>
       </c>
       <c r="D69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3267,13 +3486,16 @@
         <v>365</v>
       </c>
       <c r="D70" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3281,16 +3503,19 @@
         <v>70</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D71" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3301,13 +3526,16 @@
         <v>366</v>
       </c>
       <c r="D72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3318,13 +3546,16 @@
         <v>367</v>
       </c>
       <c r="D73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3332,16 +3563,19 @@
         <v>73</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>368</v>
+        <v>559</v>
       </c>
       <c r="D74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3349,16 +3583,19 @@
         <v>74</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D75" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3369,8 +3606,11 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3381,13 +3621,16 @@
         <v>370</v>
       </c>
       <c r="D77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3395,16 +3638,19 @@
         <v>77</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3415,13 +3661,16 @@
         <v>371</v>
       </c>
       <c r="D79" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3429,16 +3678,19 @@
         <v>79</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3449,13 +3701,16 @@
         <v>373</v>
       </c>
       <c r="D81" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3463,16 +3718,19 @@
         <v>81</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3480,16 +3738,19 @@
         <v>82</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D83" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3500,13 +3761,16 @@
         <v>374</v>
       </c>
       <c r="D84" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3517,13 +3781,16 @@
         <v>375</v>
       </c>
       <c r="D85" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3534,13 +3801,16 @@
         <v>376</v>
       </c>
       <c r="D86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3548,16 +3818,19 @@
         <v>86</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3565,16 +3838,19 @@
         <v>87</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D88" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3585,13 +3861,16 @@
         <v>372</v>
       </c>
       <c r="D89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3602,13 +3881,16 @@
         <v>377</v>
       </c>
       <c r="D90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3616,10 +3898,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D91" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E91" s="4">
         <v>33970</v>
@@ -3627,8 +3909,11 @@
       <c r="G91" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3639,7 +3924,7 @@
         <v>378</v>
       </c>
       <c r="D92" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E92" s="4">
         <v>11737</v>
@@ -3650,8 +3935,11 @@
       <c r="G92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3662,7 +3950,7 @@
         <v>379</v>
       </c>
       <c r="D93" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E93" s="4">
         <v>33414</v>
@@ -3670,8 +3958,11 @@
       <c r="G93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3679,16 +3970,19 @@
         <v>93</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D94" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3696,16 +3990,19 @@
         <v>94</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D95" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3716,13 +4013,16 @@
         <v>380</v>
       </c>
       <c r="D96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3730,16 +4030,19 @@
         <v>96</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D97" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3750,13 +4053,16 @@
         <v>381</v>
       </c>
       <c r="D98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3767,13 +4073,16 @@
         <v>382</v>
       </c>
       <c r="D99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3784,13 +4093,16 @@
         <v>383</v>
       </c>
       <c r="D100" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3801,13 +4113,16 @@
         <v>384</v>
       </c>
       <c r="D101" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3815,16 +4130,19 @@
         <v>101</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D102" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3835,13 +4153,16 @@
         <v>385</v>
       </c>
       <c r="D103" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3849,16 +4170,19 @@
         <v>103</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D104" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3869,13 +4193,16 @@
         <v>386</v>
       </c>
       <c r="D105" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3886,13 +4213,16 @@
         <v>387</v>
       </c>
       <c r="D106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3900,16 +4230,19 @@
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D107" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3917,16 +4250,19 @@
         <v>107</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D108" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3937,13 +4273,16 @@
         <v>388</v>
       </c>
       <c r="D109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3954,13 +4293,16 @@
         <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3968,16 +4310,19 @@
         <v>110</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3985,16 +4330,19 @@
         <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D112" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4005,13 +4353,16 @@
         <v>390</v>
       </c>
       <c r="D113" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4022,13 +4373,16 @@
         <v>391</v>
       </c>
       <c r="D114" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4039,13 +4393,16 @@
         <v>369</v>
       </c>
       <c r="D115" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4056,13 +4413,16 @@
         <v>392</v>
       </c>
       <c r="D116" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4070,16 +4430,19 @@
         <v>116</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D117" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4087,16 +4450,19 @@
         <v>117</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4107,13 +4473,16 @@
         <v>394</v>
       </c>
       <c r="D119" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4121,10 +4490,10 @@
         <v>119</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D120" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E120" s="4">
         <v>38873</v>
@@ -4132,8 +4501,11 @@
       <c r="G120" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4144,13 +4516,16 @@
         <v>395</v>
       </c>
       <c r="D121" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4161,13 +4536,16 @@
         <v>396</v>
       </c>
       <c r="D122" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4175,16 +4553,19 @@
         <v>122</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D123" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4195,13 +4576,16 @@
         <v>397</v>
       </c>
       <c r="D124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4212,13 +4596,16 @@
         <v>398</v>
       </c>
       <c r="D125" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4229,13 +4616,16 @@
         <v>399</v>
       </c>
       <c r="D126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4246,13 +4636,16 @@
         <v>400</v>
       </c>
       <c r="D127" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4263,13 +4656,16 @@
         <v>401</v>
       </c>
       <c r="D128" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4277,10 +4673,10 @@
         <v>128</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D129" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E129" s="4">
         <v>18178</v>
@@ -4291,8 +4687,11 @@
       <c r="G129" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4303,13 +4702,16 @@
         <v>402</v>
       </c>
       <c r="D130" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4320,13 +4722,16 @@
         <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4334,16 +4739,19 @@
         <v>131</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D132" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4351,16 +4759,19 @@
         <v>132</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D133" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4368,16 +4779,19 @@
         <v>133</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D134" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4385,16 +4799,19 @@
         <v>134</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D135" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4405,7 +4822,7 @@
         <v>405</v>
       </c>
       <c r="D136" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E136" s="4">
         <v>17518</v>
@@ -4416,8 +4833,11 @@
       <c r="G136" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4425,16 +4845,19 @@
         <v>136</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D137" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4445,8 +4868,11 @@
       <c r="G138" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4457,13 +4883,16 @@
         <v>406</v>
       </c>
       <c r="D139" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4474,13 +4903,16 @@
         <v>407</v>
       </c>
       <c r="D140" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4488,10 +4920,10 @@
         <v>140</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D141" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E141" s="4">
         <v>20388</v>
@@ -4502,8 +4934,11 @@
       <c r="G141" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4511,16 +4946,19 @@
         <v>141</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D142" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4528,16 +4966,19 @@
         <v>142</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="D143" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4545,10 +4986,10 @@
         <v>143</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D144" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E144" s="4">
         <v>16682</v>
@@ -4559,8 +5000,11 @@
       <c r="G144" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4571,13 +5015,16 @@
         <v>408</v>
       </c>
       <c r="D145" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4585,16 +5032,19 @@
         <v>145</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D146" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4605,13 +5055,16 @@
         <v>409</v>
       </c>
       <c r="D147" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4619,16 +5072,19 @@
         <v>147</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D148" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4639,13 +5095,16 @@
         <v>410</v>
       </c>
       <c r="D149" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4653,16 +5112,19 @@
         <v>149</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D150" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4670,16 +5132,19 @@
         <v>150</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D151" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4690,13 +5155,16 @@
         <v>368</v>
       </c>
       <c r="D152" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4707,13 +5175,16 @@
         <v>411</v>
       </c>
       <c r="D153" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4721,16 +5192,19 @@
         <v>153</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D154" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4738,16 +5212,19 @@
         <v>154</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4755,16 +5232,19 @@
         <v>155</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D156" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4772,16 +5252,19 @@
         <v>156</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D157" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4792,13 +5275,16 @@
         <v>412</v>
       </c>
       <c r="D158" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4806,16 +5292,19 @@
         <v>158</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4823,16 +5312,19 @@
         <v>159</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D160" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4840,16 +5332,19 @@
         <v>160</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D161" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4857,16 +5352,19 @@
         <v>161</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D162" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4874,16 +5372,19 @@
         <v>162</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D163" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4894,13 +5395,16 @@
         <v>413</v>
       </c>
       <c r="D164" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4911,13 +5415,16 @@
         <v>404</v>
       </c>
       <c r="D165" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4928,13 +5435,16 @@
         <v>414</v>
       </c>
       <c r="D166" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4945,13 +5455,16 @@
         <v>415</v>
       </c>
       <c r="D167" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4962,13 +5475,16 @@
         <v>416</v>
       </c>
       <c r="D168" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4976,16 +5492,19 @@
         <v>168</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D169" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4996,13 +5515,16 @@
         <v>417</v>
       </c>
       <c r="D170" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5010,16 +5532,19 @@
         <v>170</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D171" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5030,13 +5555,16 @@
         <v>418</v>
       </c>
       <c r="D172" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5047,13 +5575,16 @@
         <v>419</v>
       </c>
       <c r="D173" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5061,16 +5592,19 @@
         <v>173</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D174" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5081,13 +5615,16 @@
         <v>420</v>
       </c>
       <c r="D175" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5098,13 +5635,16 @@
         <v>421</v>
       </c>
       <c r="D176" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5115,13 +5655,16 @@
         <v>393</v>
       </c>
       <c r="D177" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5129,16 +5672,19 @@
         <v>177</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D178" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5149,13 +5695,16 @@
         <v>423</v>
       </c>
       <c r="D179" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5163,16 +5712,19 @@
         <v>179</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D180" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5183,13 +5735,16 @@
         <v>425</v>
       </c>
       <c r="D181" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5200,8 +5755,11 @@
       <c r="G182" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5212,8 +5770,11 @@
       <c r="G183" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5221,16 +5782,19 @@
         <v>183</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D184" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5241,8 +5805,11 @@
       <c r="G185" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5250,16 +5817,19 @@
         <v>185</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D186" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5270,13 +5840,16 @@
         <v>426</v>
       </c>
       <c r="D187" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5287,13 +5860,16 @@
         <v>427</v>
       </c>
       <c r="D188" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5304,13 +5880,16 @@
         <v>428</v>
       </c>
       <c r="D189" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5321,13 +5900,16 @@
         <v>424</v>
       </c>
       <c r="D190" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5338,13 +5920,16 @@
         <v>429</v>
       </c>
       <c r="D191" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5352,16 +5937,19 @@
         <v>191</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D192" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5369,10 +5957,10 @@
         <v>192</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D193" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E193" s="4">
         <v>34475</v>
@@ -5383,8 +5971,11 @@
       <c r="G193" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5392,16 +5983,19 @@
         <v>193</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D194" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5412,13 +6006,16 @@
         <v>430</v>
       </c>
       <c r="D195" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5429,13 +6026,16 @@
         <v>431</v>
       </c>
       <c r="D196" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5443,16 +6043,19 @@
         <v>196</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D197" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5463,13 +6066,16 @@
         <v>432</v>
       </c>
       <c r="D198" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5480,13 +6086,16 @@
         <v>433</v>
       </c>
       <c r="D199" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5494,16 +6103,19 @@
         <v>199</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D200" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5514,13 +6126,16 @@
         <v>434</v>
       </c>
       <c r="D201" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5528,16 +6143,19 @@
         <v>201</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D202" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5548,13 +6166,16 @@
         <v>435</v>
       </c>
       <c r="D203" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5562,16 +6183,19 @@
         <v>203</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D204" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5582,13 +6206,16 @@
         <v>436</v>
       </c>
       <c r="D205" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5599,8 +6226,11 @@
       <c r="G206" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5611,13 +6241,16 @@
         <v>437</v>
       </c>
       <c r="D207" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5628,13 +6261,16 @@
         <v>438</v>
       </c>
       <c r="D208" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5645,13 +6281,16 @@
         <v>439</v>
       </c>
       <c r="D209" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5662,13 +6301,16 @@
         <v>440</v>
       </c>
       <c r="D210" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5679,13 +6321,16 @@
         <v>441</v>
       </c>
       <c r="D211" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5696,13 +6341,16 @@
         <v>442</v>
       </c>
       <c r="D212" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G212" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5713,13 +6361,16 @@
         <v>443</v>
       </c>
       <c r="D213" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G213" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5730,13 +6381,16 @@
         <v>444</v>
       </c>
       <c r="D214" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5747,8 +6401,11 @@
       <c r="G215" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5759,13 +6416,16 @@
         <v>445</v>
       </c>
       <c r="D216" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5776,13 +6436,16 @@
         <v>446</v>
       </c>
       <c r="D217" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5793,13 +6456,16 @@
         <v>447</v>
       </c>
       <c r="D218" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G218" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5807,16 +6473,19 @@
         <v>218</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>448</v>
+        <v>558</v>
       </c>
       <c r="D219" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5824,16 +6493,19 @@
         <v>219</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D220" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5841,16 +6513,19 @@
         <v>220</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D221" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5858,16 +6533,19 @@
         <v>221</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D222" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5875,16 +6553,19 @@
         <v>222</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D223" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5895,13 +6576,16 @@
         <v>422</v>
       </c>
       <c r="D224" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G224" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5909,16 +6593,19 @@
         <v>224</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D225" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G225" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5926,16 +6613,19 @@
         <v>225</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D226" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5946,8 +6636,11 @@
       <c r="G227" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5958,8 +6651,11 @@
       <c r="G228" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5970,8 +6666,11 @@
       <c r="G229" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5979,16 +6678,19 @@
         <v>229</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D230" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G230" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5996,16 +6698,19 @@
         <v>230</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D231" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6013,16 +6718,19 @@
         <v>231</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D232" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6030,16 +6738,19 @@
         <v>232</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D233" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6050,8 +6761,11 @@
       <c r="G234" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6062,8 +6776,11 @@
       <c r="G235" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6074,8 +6791,11 @@
       <c r="G236" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6083,16 +6803,19 @@
         <v>236</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D237" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6100,16 +6823,19 @@
         <v>237</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D238" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6117,16 +6843,19 @@
         <v>238</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D239" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6134,16 +6863,19 @@
         <v>239</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D240" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6154,13 +6886,16 @@
         <v>329</v>
       </c>
       <c r="D241" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6168,16 +6903,19 @@
         <v>241</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D242" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6188,8 +6926,11 @@
       <c r="G243" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6197,13 +6938,19 @@
         <v>243</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
+      </c>
+      <c r="D244" t="s">
+        <v>457</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6211,13 +6958,19 @@
         <v>244</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
+      </c>
+      <c r="D245" t="s">
+        <v>457</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6228,8 +6981,11 @@
       <c r="G246" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6237,16 +6993,19 @@
         <v>246</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D247" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6257,13 +7016,16 @@
         <v>350</v>
       </c>
       <c r="D248" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6274,8 +7036,11 @@
       <c r="G249" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6286,8 +7051,11 @@
       <c r="G250" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6295,16 +7063,19 @@
         <v>250</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D251" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6312,16 +7083,19 @@
         <v>251</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D252" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G252" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6329,16 +7103,19 @@
         <v>252</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D253" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6349,8 +7126,11 @@
       <c r="G254" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6361,8 +7141,11 @@
       <c r="G255" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6373,8 +7156,11 @@
       <c r="G256" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6385,8 +7171,11 @@
       <c r="G257" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6397,8 +7186,11 @@
       <c r="G258" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6409,8 +7201,11 @@
       <c r="G259" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6421,8 +7216,11 @@
       <c r="G260" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6433,8 +7231,11 @@
       <c r="G261" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6445,8 +7246,11 @@
       <c r="G262" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6457,8 +7261,11 @@
       <c r="G263" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6466,16 +7273,19 @@
         <v>263</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D264" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6486,8 +7296,11 @@
       <c r="G265" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6498,8 +7311,11 @@
       <c r="G266" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6510,8 +7326,11 @@
       <c r="G267" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6519,16 +7338,19 @@
         <v>267</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D268" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6539,8 +7361,11 @@
       <c r="G269" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6551,8 +7376,11 @@
       <c r="G270" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6563,8 +7391,11 @@
       <c r="G271" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6575,8 +7406,11 @@
       <c r="G272" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6587,8 +7421,11 @@
       <c r="G273" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6596,16 +7433,19 @@
         <v>273</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D274" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6616,8 +7456,11 @@
       <c r="G275" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6628,8 +7471,11 @@
       <c r="G276" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6640,8 +7486,11 @@
       <c r="G277" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6652,8 +7501,11 @@
       <c r="G278" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6664,8 +7516,11 @@
       <c r="G279" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6676,8 +7531,11 @@
       <c r="G280" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6688,8 +7546,11 @@
       <c r="G281" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6697,16 +7558,19 @@
         <v>281</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D282" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G282" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6717,8 +7581,11 @@
       <c r="G283" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6729,8 +7596,11 @@
       <c r="G284" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6741,8 +7611,11 @@
       <c r="G285" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6753,8 +7626,11 @@
       <c r="G286" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6762,16 +7638,19 @@
         <v>286</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D287" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6782,8 +7661,11 @@
       <c r="G288" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6794,8 +7676,11 @@
       <c r="G289" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6806,8 +7691,11 @@
       <c r="G290" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6818,8 +7706,11 @@
       <c r="G291" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6830,8 +7721,11 @@
       <c r="G292" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6842,8 +7736,11 @@
       <c r="G293" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6854,8 +7751,11 @@
       <c r="G294" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6866,8 +7766,11 @@
       <c r="G295" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6878,8 +7781,11 @@
       <c r="G296" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6890,8 +7796,11 @@
       <c r="G297" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6902,8 +7811,11 @@
       <c r="G298" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6914,8 +7826,11 @@
       <c r="G299" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6926,8 +7841,11 @@
       <c r="G300" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6938,8 +7856,11 @@
       <c r="G301" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6950,8 +7871,11 @@
       <c r="G302" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6962,8 +7886,11 @@
       <c r="G303" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6974,8 +7901,11 @@
       <c r="G304" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6986,8 +7916,11 @@
       <c r="G305" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6998,8 +7931,11 @@
       <c r="G306" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7010,8 +7946,11 @@
       <c r="G307" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7022,8 +7961,11 @@
       <c r="G308" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7034,8 +7976,11 @@
       <c r="G309" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7046,8 +7991,11 @@
       <c r="G310" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7058,8 +8006,11 @@
       <c r="G311" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7070,8 +8021,11 @@
       <c r="G312" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7082,8 +8036,11 @@
       <c r="G313" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7094,8 +8051,11 @@
       <c r="G314" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7106,8 +8066,11 @@
       <c r="G315" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7118,8 +8081,11 @@
       <c r="G316" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7130,8 +8096,11 @@
       <c r="G317" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7142,8 +8111,11 @@
       <c r="G318" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7154,8 +8126,707 @@
       <c r="G319" t="b">
         <v>0</v>
       </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445" s="3"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C446" s="3"/>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447" s="3"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C448" s="3"/>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C449" s="3"/>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C450" s="3"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="3"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C452" s="3"/>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453" s="3"/>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C454" s="3"/>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455" s="3"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C456" s="3"/>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457" s="3"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C458" s="3"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C459" s="3"/>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C460" s="3"/>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C461" s="3"/>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C462" s="3"/>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C463" s="3"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C464" s="3"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465" s="3"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466" s="3"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467" s="3"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C468" s="3"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C469" s="3"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C470" s="3"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C471" s="3"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C472" s="3"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C473" s="3"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C474" s="3"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C475" s="3"/>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C476" s="3"/>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C477" s="3"/>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C478" s="3"/>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C479" s="3"/>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C480" s="3"/>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481" s="3"/>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482" s="3"/>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483" s="3"/>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484" s="3"/>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485" s="3"/>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486" s="3"/>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487" s="3"/>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488" s="3"/>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489" s="3"/>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490" s="3"/>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C491" s="3"/>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C492" s="3"/>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C493" s="3"/>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C494" s="3"/>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C495" s="3"/>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C496" s="3"/>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C497" s="3"/>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498" s="3"/>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C499" s="3"/>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C500" s="3"/>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C501" s="3"/>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C502" s="3"/>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C503" s="3"/>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C504" s="3"/>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C505" s="3"/>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C506" s="3"/>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C507" s="3"/>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C508" s="3"/>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C509" s="3"/>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C510" s="3"/>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C511" s="3"/>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C512" s="3"/>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513" s="3"/>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" s="3"/>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515" s="3"/>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" s="3"/>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517" s="3"/>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518" s="3"/>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519" s="3"/>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" s="3"/>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521" s="3"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" s="3"/>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523" s="3"/>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524" s="3"/>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525" s="3"/>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" s="3"/>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527" s="3"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528" s="3"/>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529" s="3"/>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530" s="3"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531" s="3"/>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" s="3"/>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533" s="3"/>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534" s="3"/>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535" s="3"/>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536" s="3"/>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537" s="3"/>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538" s="3"/>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C539" s="3"/>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C540" s="3"/>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C541" s="3"/>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C542" s="3"/>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C543" s="3"/>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544" s="3"/>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C545" s="3"/>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C546" s="3"/>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C547" s="3"/>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548" s="3"/>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C549" s="3"/>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550" s="3"/>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C551" s="3"/>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H319">
+    <sortCondition ref="A296:A319"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/teams_db.xlsx
+++ b/data/teams_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbrav\BravoRanking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC05A55-344B-494C-9D64-3E8D4FDCEE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D78954E-AC85-4926-9EDF-3841F62079AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>3019</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2595</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2423</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1906</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>2347</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>2096</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>3060</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>3299</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>2767</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2688</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2648</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2820</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2436</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2727</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2860</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2648</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2913</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2277</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2529</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2822</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2621</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2224</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2449</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3217</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3113</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1703</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2074</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2994</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2489</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2652</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2361</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2096</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2476</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2688</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2926</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2635</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2555</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1838</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2034</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2648</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2136</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>2458</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>2317</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2727</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1950</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>2281</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>2396</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2564</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>2550</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>2056</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>2281</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>2661</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>2034</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>2749</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>2570</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>2848</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>2189</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>2374</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>2083</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3468,11 +3468,14 @@
       <c r="D69" t="s">
         <v>457</v>
       </c>
+      <c r="E69" s="4">
+        <v>33475</v>
+      </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>2661</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,11 +3491,14 @@
       <c r="D70" t="s">
         <v>457</v>
       </c>
+      <c r="E70" s="4">
+        <v>33474</v>
+      </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>2727</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3512,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1910</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3532,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1367</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3552,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>2515</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3572,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>2440</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3592,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1963</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3627,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>2122</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>2056</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3667,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>2529</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3687,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1862</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3707,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>2162</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1884</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3747,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>2228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3767,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>2862</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3787,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>2915</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3807,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>3180</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3827,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1910</v>
+        <v>994</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3847,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>2440</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3867,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>2140</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3887,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1924</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3910,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>2555</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3936,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>1875</v>
+        <v>944</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3959,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>2674</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3979,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>2087</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3999,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>1778</v>
+        <v>947</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4019,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1822</v>
+        <v>936</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4039,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>2140</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4059,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1411</v>
+        <v>670</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4079,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>2286</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4099,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>2299</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4119,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>2405</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4139,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2515</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4159,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>2661</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4175,11 +4181,14 @@
       <c r="D104" t="s">
         <v>457</v>
       </c>
+      <c r="E104" s="4">
+        <v>38871</v>
+      </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>2635</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>2259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4219,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>3027</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4239,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>1888</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4259,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4279,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1848</v>
+        <v>787</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4299,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>2590</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>2365</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4339,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>2100</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4355,11 +4364,14 @@
       <c r="D113" t="s">
         <v>466</v>
       </c>
+      <c r="E113" s="4">
+        <v>27943</v>
+      </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1915</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4379,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>1729</v>
+        <v>767</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4399,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>2069</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4419,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>2357</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4439,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>2219</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4459,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>2431</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4479,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>2021</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4502,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>2754</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4522,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>2113</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4542,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>2418</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1917</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4582,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1493</v>
+        <v>889</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4602,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1560</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4622,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>1968</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4642,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>2140</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4662,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>1822</v>
+        <v>872</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4688,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>2568</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4708,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1705</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4728,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>2272</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4748,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>2127</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4768,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>1981</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4788,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>2140</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4808,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>2392</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4834,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>2489</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4854,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>2113</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4889,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1849</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4909,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1637</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4935,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>2193</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4955,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1835</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4971,11 +4983,14 @@
       <c r="D143" t="s">
         <v>457</v>
       </c>
+      <c r="E143" s="4">
+        <v>33477</v>
+      </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2794</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5001,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1888</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5021,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>2299</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5041,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>2617</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5061,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>2286</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5081,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>2595</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5101,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>2286</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5121,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>2378</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5141,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>1716</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5161,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>2352</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5181,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>2259</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5201,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>2299</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5221,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>2484</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5241,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>2219</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5261,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>2352</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5281,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>2286</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5301,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>2206</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5321,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>2418</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5341,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>2564</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5361,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>2140</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5381,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>2215</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5401,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>2339</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5421,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>2431</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5441,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>2365</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5461,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1954</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5481,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>1769</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5501,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1666</v>
+        <v>947</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5521,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1149</v>
+        <v>922</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5541,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>2312</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5561,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>1809</v>
+        <v>918</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5581,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1517</v>
+        <v>847</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5601,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>2127</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5621,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>2233</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5641,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1804</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5661,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>2140</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5681,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>1954</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5701,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>1107</v>
+        <v>972</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5721,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>1849</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5741,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>1398</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5756,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>729</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5791,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>2166</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5826,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>2074</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -5846,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>1954</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -5866,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>1796</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -5886,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>2166</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -5906,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>1765</v>
+        <v>934</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -5926,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>1266</v>
+        <v>667</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -5946,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>513</v>
+        <v>718</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -5972,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>1888</v>
+        <v>932</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5992,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>1902</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6012,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>2264</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6032,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>1782</v>
+        <v>849</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6052,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>1751</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6072,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>1888</v>
+        <v>908</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6092,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>2206</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6112,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>2193</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -6132,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>2219</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -6152,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>1120</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -6172,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>2378</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -6192,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>2180</v>
+        <v>983</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -6212,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>2246</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -6227,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -6243,11 +6258,14 @@
       <c r="D207" t="s">
         <v>457</v>
       </c>
+      <c r="E207" s="4">
+        <v>33504</v>
+      </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>2568</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6263,11 +6281,14 @@
       <c r="D208" t="s">
         <v>457</v>
       </c>
+      <c r="E208" s="4">
+        <v>33337</v>
+      </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>2820</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -6283,11 +6304,14 @@
       <c r="D209" t="s">
         <v>457</v>
       </c>
+      <c r="E209" s="4">
+        <v>33529</v>
+      </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>2529</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -6303,11 +6327,14 @@
       <c r="D210" t="s">
         <v>457</v>
       </c>
+      <c r="E210" s="4">
+        <v>33588</v>
+      </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>2780</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -6327,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>1626</v>
+        <v>541</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -6347,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>420</v>
+        <v>327</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -6367,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>1136</v>
+        <v>473</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6387,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>1533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -6402,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -6422,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>2436</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -6442,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>1398</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -6462,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>1348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -6482,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>1149</v>
+        <v>605</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -6502,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>1818</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -6522,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>1990</v>
+        <v>874</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -6542,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>1751</v>
+        <v>619</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -6562,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>1963</v>
+        <v>731</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -6582,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>1560</v>
+        <v>306</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -6602,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>2016</v>
+        <v>802</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -6622,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>2166</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -6687,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>2241</v>
+        <v>883</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -6707,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>2092</v>
+        <v>898</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -6727,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>1685</v>
+        <v>625</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -6747,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>2648</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -6812,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>2233</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -6832,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>1941</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -6852,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>2233</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -6872,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>2286</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -6888,11 +6915,14 @@
       <c r="D241" t="s">
         <v>457</v>
       </c>
+      <c r="E241" s="4">
+        <v>33970</v>
+      </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>2860</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -6912,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>2489</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -6943,11 +6973,14 @@
       <c r="D244" t="s">
         <v>457</v>
       </c>
+      <c r="E244" s="4">
+        <v>33489</v>
+      </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>2833</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -6963,11 +6996,14 @@
       <c r="D245" t="s">
         <v>457</v>
       </c>
+      <c r="E245" s="4">
+        <v>33666</v>
+      </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>2621</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -7002,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>1160</v>
+        <v>811</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7022,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>2370</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7072,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>1553</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -7092,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>1822</v>
+        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -7112,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>1751</v>
+        <v>651</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -7127,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -7187,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -7232,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>941</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -7247,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -7262,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>735</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -7282,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>1610</v>
+        <v>723</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -7343,11 +7379,14 @@
       <c r="D268" t="s">
         <v>457</v>
       </c>
+      <c r="E268" s="4">
+        <v>39495</v>
+      </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>2555</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -7442,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>2193</v>
+        <v>928</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -7547,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>728</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -7567,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="H282">
-        <v>1990</v>
+        <v>791</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -7647,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>2166</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -8825,7 +8864,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H319">
-    <sortCondition ref="A296:A319"/>
+    <sortCondition ref="A3:A319"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/teams_db.xlsx
+++ b/data/teams_db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbrav\BravoRanking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D78954E-AC85-4926-9EDF-3841F62079AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB1A967-8E67-47A1-8B3D-B2916D22CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="562">
   <si>
     <t>team</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>China PR</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>Jamaica</t>
   </si>
   <si>
-    <t>Republic of Ireland</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
@@ -374,9 +368,6 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Macau</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
@@ -419,9 +410,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>German DR</t>
-  </si>
-  <si>
     <t>Tahiti</t>
   </si>
   <si>
@@ -521,9 +509,6 @@
     <t>Iraq</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
@@ -611,9 +596,6 @@
     <t>Cook Islands</t>
   </si>
   <si>
-    <t>Yemen DPR</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -755,9 +737,6 @@
     <t>Eritrea</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -785,24 +764,15 @@
     <t>Hitra</t>
   </si>
   <si>
-    <t>United States Virgin Islands</t>
-  </si>
-  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
     <t>Gotland</t>
   </si>
   <si>
-    <t>Saare County</t>
-  </si>
-  <si>
     <t>Rhodes</t>
   </si>
   <si>
@@ -824,9 +794,6 @@
     <t>Vatican City</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Alderney</t>
   </si>
   <si>
@@ -1622,9 +1589,6 @@
     <t>COK</t>
   </si>
   <si>
-    <t>YDR</t>
-  </si>
-  <si>
     <t>UAE</t>
   </si>
   <si>
@@ -1722,13 +1686,46 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>North Yemen</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>East Germany</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>FS Micronesia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Saar</t>
+  </si>
+  <si>
+    <t>St Vincent &amp; Grenadines</t>
+  </si>
+  <si>
+    <t>US Virgin Islands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,6 +1735,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1791,7 +1796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1803,6 +1808,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2107,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H552"/>
+  <dimension ref="A1:L552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,32 +2124,33 @@
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2154,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -2174,10 +2181,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -2194,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -2214,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D5" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2234,10 +2241,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2254,10 +2261,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2274,10 +2281,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2294,10 +2301,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2314,10 +2321,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D10" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2334,10 +2341,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2354,10 +2361,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F12" s="4">
         <v>33969</v>
@@ -2377,10 +2384,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D13" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2397,10 +2404,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2417,10 +2424,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D15" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2437,10 +2444,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D16" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2457,10 +2464,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2477,10 +2484,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D18" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2497,10 +2504,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2517,10 +2524,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2537,10 +2544,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D21" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2557,10 +2564,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D22" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2577,10 +2584,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2612,10 +2619,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D25" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2632,10 +2639,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D26" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2652,10 +2659,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2687,10 +2694,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D29" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2707,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2727,10 +2734,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D31" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -2747,10 +2754,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D32" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -2759,7 +2766,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2774,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2782,10 +2789,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D34" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -2794,7 +2801,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2802,10 +2809,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D35" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -2814,7 +2821,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2822,10 +2829,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D36" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -2834,7 +2841,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2842,10 +2849,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D37" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E37" s="4">
         <v>6910</v>
@@ -2860,7 +2867,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2868,10 +2875,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -2880,7 +2887,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2888,10 +2895,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D39" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2900,7 +2907,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2908,10 +2915,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D40" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2920,7 +2927,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2943,10 +2950,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D42" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2954,8 +2961,9 @@
       <c r="H42">
         <v>1679</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2963,10 +2971,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D43" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -2975,7 +2983,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2983,10 +2991,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D44" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2995,7 +3003,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3003,10 +3011,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D45" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -3015,7 +3023,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3030,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3045,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3053,10 +3061,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D48" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3100,13 +3108,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>552</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D51" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3120,13 +3128,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3140,13 +3148,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D53" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -3160,13 +3168,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D54" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3180,13 +3188,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D55" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -3200,13 +3208,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D56" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -3220,13 +3228,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D57" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3240,13 +3248,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D58" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -3260,13 +3268,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D59" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3280,13 +3288,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3300,13 +3308,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>557</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D61" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3320,13 +3328,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D62" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -3340,13 +3348,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D63" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3360,13 +3368,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D64" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -3375,18 +3383,18 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D65" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3395,18 +3403,18 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D66" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -3415,18 +3423,18 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D67" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -3435,18 +3443,18 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D68" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -3455,18 +3463,18 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D69" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E69" s="4">
         <v>33475</v>
@@ -3478,18 +3486,18 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D70" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E70" s="4">
         <v>33474</v>
@@ -3501,18 +3509,18 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D71" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -3521,18 +3529,18 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D72" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3540,19 +3548,20 @@
       <c r="H72">
         <v>1038</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D73" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -3561,18 +3570,18 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D74" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -3581,18 +3590,18 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D75" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -3601,12 +3610,12 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="3"/>
       <c r="G76" t="b">
@@ -3616,18 +3625,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D77" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -3636,18 +3645,18 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D78" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -3656,18 +3665,18 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D79" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -3676,18 +3685,18 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D80" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3696,18 +3705,18 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D81" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3716,18 +3725,18 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D82" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -3736,18 +3745,18 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D83" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -3756,18 +3765,18 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D84" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -3776,18 +3785,18 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D85" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -3796,18 +3805,18 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D86" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -3815,19 +3824,20 @@
       <c r="H86">
         <v>1335</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D87" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -3836,18 +3846,18 @@
         <v>994</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D88" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -3856,18 +3866,18 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D89" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -3876,18 +3886,18 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D90" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -3896,18 +3906,18 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D91" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E91" s="4">
         <v>33970</v>
@@ -3919,18 +3929,18 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D92" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E92" s="4">
         <v>11737</v>
@@ -3945,18 +3955,18 @@
         <v>944</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D93" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E93" s="4">
         <v>33414</v>
@@ -3968,18 +3978,18 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D94" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -3988,18 +3998,18 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D95" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -4008,18 +4018,18 @@
         <v>947</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D96" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -4033,13 +4043,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D97" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -4053,13 +4063,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D98" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -4073,13 +4083,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D99" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -4093,13 +4103,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -4113,13 +4123,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D101" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -4133,13 +4143,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D102" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
@@ -4153,13 +4163,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D103" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
@@ -4173,13 +4183,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D104" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E104" s="4">
         <v>38871</v>
@@ -4196,13 +4206,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D105" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
@@ -4216,13 +4226,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D106" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -4236,13 +4246,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D107" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -4256,13 +4266,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D108" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -4276,13 +4286,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D109" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -4296,13 +4306,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D110" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -4316,13 +4326,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D111" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -4336,13 +4346,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D112" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
@@ -4351,18 +4361,18 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D113" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E113" s="4">
         <v>27943</v>
@@ -4374,18 +4384,18 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>558</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D114" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -4393,19 +4403,20 @@
       <c r="H114">
         <v>767</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D115" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -4414,18 +4425,18 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D116" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -4434,18 +4445,18 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D117" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -4454,18 +4465,18 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D118" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -4474,18 +4485,18 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D119" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -4494,18 +4505,18 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D120" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E120" s="4">
         <v>38873</v>
@@ -4517,18 +4528,18 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D121" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -4537,18 +4548,18 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D122" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
@@ -4557,18 +4568,18 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D123" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -4577,18 +4588,18 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D124" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
@@ -4597,18 +4608,18 @@
         <v>889</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D125" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -4617,18 +4628,18 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D126" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -4637,18 +4648,18 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D127" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
@@ -4657,18 +4668,18 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D128" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -4677,18 +4688,18 @@
         <v>872</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>554</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D129" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E129" s="4">
         <v>18178</v>
@@ -4703,18 +4714,18 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D130" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -4723,18 +4734,18 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D131" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -4743,18 +4754,18 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D132" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -4763,18 +4774,18 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D133" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -4783,18 +4794,18 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D134" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -4803,18 +4814,18 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D135" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -4823,18 +4834,18 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D136" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E136" s="4">
         <v>17518</v>
@@ -4849,18 +4860,18 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D137" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
@@ -4869,12 +4880,12 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C138" s="3"/>
       <c r="G138" t="b">
@@ -4884,18 +4895,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D139" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -4903,19 +4914,20 @@
       <c r="H139">
         <v>1004</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D140" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -4924,18 +4936,18 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D141" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E141" s="4">
         <v>20388</v>
@@ -4950,18 +4962,18 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D142" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -4970,18 +4982,18 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="D143" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E143" s="4">
         <v>33477</v>
@@ -4993,18 +5005,18 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D144" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E144" s="4">
         <v>16682</v>
@@ -5019,18 +5031,18 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D145" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -5039,18 +5051,18 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D146" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -5059,18 +5071,18 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D147" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -5079,18 +5091,18 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D148" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -5099,18 +5111,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D149" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -5119,18 +5131,18 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D150" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -5139,18 +5151,18 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D151" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -5159,18 +5171,18 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D152" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -5179,18 +5191,18 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D153" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -5199,18 +5211,18 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -5219,18 +5231,18 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D155" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
@@ -5239,18 +5251,18 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D156" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
@@ -5259,18 +5271,18 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D157" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
@@ -5279,18 +5291,18 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D158" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -5299,18 +5311,18 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D159" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -5318,19 +5330,20 @@
       <c r="H159">
         <v>1351</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D160" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -5344,13 +5357,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D161" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
@@ -5364,13 +5377,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D162" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -5384,13 +5397,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>560</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D163" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -5404,13 +5417,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D164" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -5424,13 +5437,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D165" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
@@ -5444,13 +5457,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D166" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
@@ -5464,13 +5477,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D167" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
@@ -5484,13 +5497,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D168" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -5504,13 +5517,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D169" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -5524,13 +5537,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D170" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -5544,13 +5557,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D171" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
@@ -5564,13 +5577,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D172" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -5584,13 +5597,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D173" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
@@ -5604,13 +5617,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D174" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
@@ -5624,13 +5637,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D175" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
@@ -5644,13 +5657,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D176" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -5659,18 +5672,18 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D177" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
@@ -5679,18 +5692,18 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D178" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -5699,18 +5712,18 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D179" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -5719,18 +5732,18 @@
         <v>972</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D180" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -5739,18 +5752,18 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D181" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
@@ -5759,12 +5772,12 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C182" s="3"/>
       <c r="G182" t="b">
@@ -5773,13 +5786,14 @@
       <c r="H182">
         <v>729</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L182" s="5"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C183" s="3"/>
       <c r="G183" t="b">
@@ -5789,18 +5803,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D184" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
@@ -5809,12 +5823,12 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C185" s="3"/>
       <c r="G185" t="b">
@@ -5824,18 +5838,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D186" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
@@ -5844,18 +5858,18 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D187" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
@@ -5864,18 +5878,18 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D188" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
@@ -5884,18 +5898,18 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D189" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
@@ -5904,18 +5918,18 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D190" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
@@ -5924,18 +5938,18 @@
         <v>934</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D191" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
@@ -5944,18 +5958,18 @@
         <v>667</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D192" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -5964,44 +5978,44 @@
         <v>718</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>551</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>529</v>
+        <v>412</v>
       </c>
       <c r="D193" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E193" s="4">
-        <v>34475</v>
+        <v>22915</v>
       </c>
       <c r="F193" s="4">
-        <v>34522</v>
+        <v>33015</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>932</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D194" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
@@ -6010,18 +6024,18 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D195" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
@@ -6030,18 +6044,18 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D196" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -6050,18 +6064,18 @@
         <v>849</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="D197" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
@@ -6069,19 +6083,20 @@
       <c r="H197">
         <v>1049</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L197" s="5"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D198" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
@@ -6090,18 +6105,18 @@
         <v>908</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D199" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
@@ -6110,18 +6125,18 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D200" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
@@ -6130,18 +6145,18 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D201" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
@@ -6150,18 +6165,18 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D202" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
@@ -6170,18 +6185,18 @@
         <v>507</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D203" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
@@ -6190,18 +6205,18 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D204" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
@@ -6210,18 +6225,18 @@
         <v>983</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D205" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
@@ -6230,12 +6245,12 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C206" s="3"/>
       <c r="G206" t="b">
@@ -6245,18 +6260,18 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D207" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E207" s="4">
         <v>33504</v>
@@ -6268,18 +6283,18 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D208" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E208" s="4">
         <v>33337</v>
@@ -6291,18 +6306,18 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D209" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E209" s="4">
         <v>33529</v>
@@ -6314,18 +6329,18 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D210" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E210" s="4">
         <v>33588</v>
@@ -6337,18 +6352,18 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D211" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -6357,18 +6372,18 @@
         <v>541</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D212" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G212" t="b">
         <v>0</v>
@@ -6377,18 +6392,18 @@
         <v>327</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D213" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G213" t="b">
         <v>0</v>
@@ -6397,18 +6412,18 @@
         <v>473</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D214" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
@@ -6417,12 +6432,12 @@
         <v>532</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C215" s="3"/>
       <c r="G215" t="b">
@@ -6432,18 +6447,18 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D216" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
@@ -6452,18 +6467,18 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D217" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
@@ -6472,18 +6487,18 @@
         <v>625</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D218" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G218" t="b">
         <v>0</v>
@@ -6492,18 +6507,18 @@
         <v>315</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D219" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
@@ -6511,19 +6526,20 @@
       <c r="H219">
         <v>605</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L219" s="5"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D220" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -6532,18 +6548,18 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D221" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
@@ -6552,18 +6568,18 @@
         <v>874</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D222" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
@@ -6572,18 +6588,18 @@
         <v>619</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D223" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
@@ -6592,18 +6608,18 @@
         <v>731</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D224" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G224" t="b">
         <v>0</v>
@@ -6612,18 +6628,18 @@
         <v>306</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="D225" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G225" t="b">
         <v>0</v>
@@ -6632,18 +6648,18 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D226" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
@@ -6652,12 +6668,12 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C227" s="3"/>
       <c r="G227" t="b">
@@ -6667,12 +6683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C228" s="3"/>
       <c r="G228" t="b">
@@ -6682,12 +6698,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C229" s="3"/>
       <c r="G229" t="b">
@@ -6697,18 +6713,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D230" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G230" t="b">
         <v>0</v>
@@ -6717,18 +6733,18 @@
         <v>883</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="D231" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -6737,18 +6753,18 @@
         <v>898</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D232" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
@@ -6757,18 +6773,18 @@
         <v>625</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D233" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
@@ -6777,12 +6793,12 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C234" s="3"/>
       <c r="G234" t="b">
@@ -6792,12 +6808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C235" s="3"/>
       <c r="G235" t="b">
@@ -6807,12 +6823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C236" s="3"/>
       <c r="G236" t="b">
@@ -6822,18 +6838,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D237" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
@@ -6842,18 +6858,18 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D238" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
@@ -6862,18 +6878,18 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D239" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
@@ -6881,19 +6897,20 @@
       <c r="H239">
         <v>1500</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L239" s="5"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D240" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
@@ -6901,19 +6918,20 @@
       <c r="H240">
         <v>1118</v>
       </c>
+      <c r="L240" s="5"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>553</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D241" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E241" s="4">
         <v>33970</v>
@@ -6930,13 +6948,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D242" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
@@ -6950,7 +6968,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C243" s="3"/>
       <c r="G243" t="b">
@@ -6965,13 +6983,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D244" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E244" s="4">
         <v>33489</v>
@@ -6988,13 +7006,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="D245" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E245" s="4">
         <v>33666</v>
@@ -7011,7 +7029,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C246" s="3"/>
       <c r="G246" t="b">
@@ -7026,13 +7044,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D247" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
@@ -7046,13 +7064,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D248" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
@@ -7066,7 +7084,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C249" s="3"/>
       <c r="G249" t="b">
@@ -7081,7 +7099,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C250" s="3"/>
       <c r="G250" t="b">
@@ -7096,13 +7114,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>561</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D251" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
@@ -7116,13 +7134,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="D252" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G252" t="b">
         <v>0</v>
@@ -7136,13 +7154,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D253" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
@@ -7156,7 +7174,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>556</v>
       </c>
       <c r="C254" s="3"/>
       <c r="G254" t="b">
@@ -7171,7 +7189,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C255" s="3"/>
       <c r="G255" t="b">
@@ -7186,7 +7204,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>559</v>
       </c>
       <c r="C256" s="3"/>
       <c r="G256" t="b">
@@ -7201,7 +7219,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C257" s="3"/>
       <c r="G257" t="b">
@@ -7216,7 +7234,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C258" s="3"/>
       <c r="G258" t="b">
@@ -7231,7 +7249,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C259" s="3"/>
       <c r="G259" t="b">
@@ -7246,7 +7264,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C260" s="3"/>
       <c r="G260" t="b">
@@ -7261,7 +7279,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C261" s="3"/>
       <c r="G261" t="b">
@@ -7276,7 +7294,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C262" s="3"/>
       <c r="G262" t="b">
@@ -7291,7 +7309,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C263" s="3"/>
       <c r="G263" t="b">
@@ -7306,13 +7324,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>555</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D264" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
@@ -7326,7 +7344,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C265" s="3"/>
       <c r="G265" t="b">
@@ -7341,7 +7359,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C266" s="3"/>
       <c r="G266" t="b">
@@ -7356,7 +7374,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C267" s="3"/>
       <c r="G267" t="b">
@@ -7371,13 +7389,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D268" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E268" s="4">
         <v>39495</v>
@@ -7394,7 +7412,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C269" s="3"/>
       <c r="G269" t="b">
@@ -7409,7 +7427,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C270" s="3"/>
       <c r="G270" t="b">
@@ -7424,7 +7442,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C271" s="3"/>
       <c r="G271" t="b">
@@ -7439,7 +7457,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C272" s="3"/>
       <c r="G272" t="b">
@@ -7454,7 +7472,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C273" s="3"/>
       <c r="G273" t="b">
@@ -7469,13 +7487,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D274" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
@@ -7489,7 +7507,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C275" s="3"/>
       <c r="G275" t="b">
@@ -7504,7 +7522,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C276" s="3"/>
       <c r="G276" t="b">
@@ -7519,7 +7537,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C277" s="3"/>
       <c r="G277" t="b">
@@ -7534,7 +7552,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C278" s="3"/>
       <c r="G278" t="b">
@@ -7549,7 +7567,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C279" s="3"/>
       <c r="G279" t="b">
@@ -7564,7 +7582,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C280" s="3"/>
       <c r="G280" t="b">
@@ -7579,7 +7597,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C281" s="3"/>
       <c r="G281" t="b">
@@ -7594,13 +7612,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D282" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G282" t="b">
         <v>0</v>
@@ -7614,7 +7632,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C283" s="3"/>
       <c r="G283" t="b">
@@ -7629,7 +7647,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C284" s="3"/>
       <c r="G284" t="b">
@@ -7644,7 +7662,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C285" s="3"/>
       <c r="G285" t="b">
@@ -7659,7 +7677,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C286" s="3"/>
       <c r="G286" t="b">
@@ -7674,13 +7692,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="D287" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
@@ -7694,7 +7712,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C288" s="3"/>
       <c r="G288" t="b">
@@ -7709,7 +7727,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C289" s="3"/>
       <c r="G289" t="b">
@@ -7724,7 +7742,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C290" s="3"/>
       <c r="G290" t="b">
@@ -7739,7 +7757,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C291" s="3"/>
       <c r="G291" t="b">
@@ -7754,7 +7772,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C292" s="3"/>
       <c r="G292" t="b">
@@ -7769,7 +7787,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C293" s="3"/>
       <c r="G293" t="b">
@@ -7784,7 +7802,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C294" s="3"/>
       <c r="G294" t="b">
@@ -7799,7 +7817,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C295" s="3"/>
       <c r="G295" t="b">
@@ -7814,7 +7832,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C296" s="3"/>
       <c r="G296" t="b">
@@ -7829,7 +7847,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C297" s="3"/>
       <c r="G297" t="b">
@@ -7844,7 +7862,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C298" s="3"/>
       <c r="G298" t="b">
@@ -7859,7 +7877,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C299" s="3"/>
       <c r="G299" t="b">
@@ -7874,7 +7892,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C300" s="3"/>
       <c r="G300" t="b">
@@ -7889,7 +7907,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C301" s="3"/>
       <c r="G301" t="b">
@@ -7904,7 +7922,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C302" s="3"/>
       <c r="G302" t="b">
@@ -7919,7 +7937,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C303" s="3"/>
       <c r="G303" t="b">
@@ -7934,7 +7952,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C304" s="3"/>
       <c r="G304" t="b">
@@ -7949,7 +7967,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C305" s="3"/>
       <c r="G305" t="b">
@@ -7964,7 +7982,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C306" s="3"/>
       <c r="G306" t="b">
@@ -7979,7 +7997,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C307" s="3"/>
       <c r="G307" t="b">
@@ -7994,7 +8012,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C308" s="3"/>
       <c r="G308" t="b">
@@ -8009,7 +8027,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C309" s="3"/>
       <c r="G309" t="b">
@@ -8024,7 +8042,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C310" s="3"/>
       <c r="G310" t="b">
@@ -8039,7 +8057,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C311" s="3"/>
       <c r="G311" t="b">
@@ -8054,7 +8072,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C312" s="3"/>
       <c r="G312" t="b">
@@ -8069,7 +8087,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C313" s="3"/>
       <c r="G313" t="b">
@@ -8084,7 +8102,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C314" s="3"/>
       <c r="G314" t="b">
@@ -8099,7 +8117,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C315" s="3"/>
       <c r="G315" t="b">
@@ -8114,7 +8132,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C316" s="3"/>
       <c r="G316" t="b">
@@ -8129,7 +8147,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C317" s="3"/>
       <c r="G317" t="b">
@@ -8144,7 +8162,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C318" s="3"/>
       <c r="G318" t="b">
@@ -8159,7 +8177,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C319" s="3"/>
       <c r="G319" t="b">

--- a/data/teams_db.xlsx
+++ b/data/teams_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbrav\BravoRanking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5892134-20D0-4BE9-A471-90328E6CAB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA4EDF5-E64A-421A-A891-F3F3CA838517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="880">
   <si>
     <t>team</t>
   </si>
@@ -2833,7 +2833,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0B0BB44-9E7E-43A7-AA99-FFF6C6318EC7}" name="Tableau1" displayName="Tableau1" ref="A1:K369" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:K369" xr:uid="{E0B0BB44-9E7E-43A7-AA99-FFF6C6318EC7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K369">
-    <sortCondition ref="C124:C369"/>
+    <sortCondition ref="C93:C369"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4A662F09-79DB-4DFC-8DCE-ED6253CFBF34}" name="team_id"/>
@@ -3143,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,7 +3373,7 @@
         <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>559</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>543</v>
@@ -3393,77 +3393,77 @@
         <v>1605</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>559</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>559</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F10" t="s">
+        <v>459</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1605</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="F11" t="s">
-        <v>444</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2083</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F12" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>2549</v>
+        <v>2083</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3479,22 +3479,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>521</v>
+        <v>422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F13" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1619</v>
+        <v>2549</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3510,19 +3510,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>801</v>
+        <v>614</v>
       </c>
       <c r="F14" t="s">
         <v>447</v>
@@ -3533,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>2049</v>
+        <v>1619</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3541,72 +3541,72 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>189</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="F15" t="s">
+        <v>447</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2049</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="F16" t="s">
-        <v>448</v>
+        <v>265</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3037</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F17" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>2396</v>
+        <v>3037</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -3622,122 +3622,122 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>199</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F18" t="s">
+        <v>444</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2396</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="F19" t="s">
-        <v>447</v>
+        <v>276</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2369</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F20" t="s">
+        <v>447</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2369</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="F21" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2544</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>449</v>
+        <v>315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F22" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>2826</v>
+        <v>2544</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -3753,72 +3753,72 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F23" t="s">
+        <v>444</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2826</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="F24" t="s">
-        <v>444</v>
+        <v>303</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2584</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F25" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1934</v>
+        <v>2584</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3834,22 +3834,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>513</v>
+        <v>411</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F26" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>2224</v>
+        <v>1934</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="F27" t="s">
         <v>453</v>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1908</v>
+        <v>2224</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3896,119 +3896,119 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>289</v>
+        <v>190</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F28" t="s">
+        <v>453</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1908</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="F29" t="s">
-        <v>447</v>
+        <v>289</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>2162</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>68</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F30" t="s">
+        <v>447</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2162</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="F31" t="s">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>2455</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>318</v>
+        <v>546</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F32" t="s">
         <v>444</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>2735</v>
+        <v>2455</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -4027,32 +4027,30 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>560</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>520</v>
+        <v>318</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>805</v>
+        <v>628</v>
       </c>
       <c r="F33" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="4">
-        <v>26815</v>
-      </c>
+      <c r="H33" s="4"/>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>2032</v>
+        <v>2735</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -4060,10 +4058,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>560</v>
       </c>
       <c r="C34" t="s">
         <v>212</v>
@@ -4072,15 +4070,15 @@
         <v>520</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>634</v>
+        <v>805</v>
       </c>
       <c r="F34" t="s">
         <v>447</v>
       </c>
-      <c r="G34" s="4">
-        <v>26816</v>
-      </c>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <v>26815</v>
+      </c>
       <c r="I34" t="b">
         <v>1</v>
       </c>
@@ -4088,48 +4086,48 @@
         <v>2032</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>562</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>398</v>
+        <v>520</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="F35" t="s">
-        <v>461</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4">
-        <v>21861</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="G35" s="4">
+        <v>26816</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>2266</v>
+        <v>2032</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C36" t="s">
         <v>147</v>
@@ -4138,16 +4136,14 @@
         <v>398</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="F36" t="s">
         <v>461</v>
       </c>
-      <c r="G36" s="4">
-        <v>21862</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4">
-        <v>27727</v>
+        <v>21861</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -4156,15 +4152,15 @@
         <v>2266</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>561</v>
       </c>
       <c r="C37" t="s">
         <v>147</v>
@@ -4179,9 +4175,11 @@
         <v>461</v>
       </c>
       <c r="G37" s="4">
-        <v>27728</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>21862</v>
+      </c>
+      <c r="H37" s="4">
+        <v>27727</v>
+      </c>
       <c r="I37" t="b">
         <v>1</v>
       </c>
@@ -4189,58 +4187,60 @@
         <v>2266</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F38" t="s">
-        <v>447</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>461</v>
+      </c>
+      <c r="G38" s="4">
+        <v>27728</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" t="b">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>2120</v>
+        <v>2266</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F39" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>1625</v>
+        <v>2120</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4256,80 +4256,80 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>300</v>
+        <v>209</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F40" t="s">
+        <v>453</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1625</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="F41" t="s">
-        <v>448</v>
+        <v>300</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>2413</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F42" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1791</v>
+        <v>2413</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4338,30 +4338,30 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>531</v>
+        <v>443</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>804</v>
+        <v>636</v>
       </c>
       <c r="F43" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>2648</v>
+        <v>1791</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4369,22 +4369,22 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>413</v>
+        <v>531</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>637</v>
+        <v>804</v>
       </c>
       <c r="F44" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <v>2043</v>
+        <v>2648</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4400,22 +4400,22 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F45" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <v>2960</v>
+        <v>2043</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4431,22 +4431,22 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>522</v>
+        <v>328</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>864</v>
+        <v>638</v>
       </c>
       <c r="F46" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4454,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>1731</v>
+        <v>2960</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4462,72 +4462,72 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>215</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F47" t="s">
+        <v>447</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1731</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="F48" t="s">
-        <v>453</v>
+        <v>40</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1667</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F49" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>2094</v>
+        <v>1667</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4543,32 +4543,30 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>323</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>563</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>500</v>
+        <v>343</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>803</v>
+        <v>641</v>
       </c>
       <c r="F50" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="4">
-        <v>30897</v>
-      </c>
+      <c r="H50" s="4"/>
       <c r="I50" t="b">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>2351</v>
+        <v>2094</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -4576,10 +4574,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>158</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>563</v>
       </c>
       <c r="C51" t="s">
         <v>153</v>
@@ -4588,15 +4586,15 @@
         <v>500</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F51" t="s">
         <v>461</v>
       </c>
-      <c r="G51" s="4">
-        <v>30898</v>
-      </c>
-      <c r="H51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4">
+        <v>30897</v>
+      </c>
       <c r="I51" t="b">
         <v>1</v>
       </c>
@@ -4604,48 +4602,48 @@
         <v>2351</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>564</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>628</v>
+        <v>802</v>
       </c>
       <c r="F52" t="s">
         <v>461</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4">
-        <v>22827</v>
-      </c>
+      <c r="G52" s="4">
+        <v>30898</v>
+      </c>
+      <c r="H52" s="4"/>
       <c r="I52" t="b">
         <v>1</v>
       </c>
       <c r="J52">
-        <v>2157</v>
+        <v>2351</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>564</v>
       </c>
       <c r="C53" t="s">
         <v>131</v>
@@ -4654,15 +4652,15 @@
         <v>504</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F53" t="s">
         <v>461</v>
       </c>
-      <c r="G53" s="4">
-        <v>22828</v>
-      </c>
-      <c r="H53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
+        <v>22827</v>
+      </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
@@ -4670,50 +4668,48 @@
         <v>2157</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>325</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>565</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>806</v>
+        <v>627</v>
       </c>
       <c r="F54" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G54" s="4">
-        <v>25645</v>
-      </c>
-      <c r="H54" s="4">
-        <v>27501</v>
-      </c>
+        <v>22828</v>
+      </c>
+      <c r="H54" s="4"/>
       <c r="I54" t="b">
         <v>1</v>
       </c>
       <c r="J54">
-        <v>2004</v>
+        <v>2157</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>565</v>
       </c>
       <c r="C55" t="s">
         <v>133</v>
@@ -4722,13 +4718,17 @@
         <v>393</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>642</v>
+        <v>806</v>
       </c>
       <c r="F55" t="s">
         <v>453</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="G55" s="4">
+        <v>25645</v>
+      </c>
+      <c r="H55" s="4">
+        <v>27501</v>
+      </c>
       <c r="I55" t="b">
         <v>1</v>
       </c>
@@ -4736,27 +4736,27 @@
         <v>2004</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>497</v>
+        <v>393</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F56" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4764,30 +4764,30 @@
         <v>1</v>
       </c>
       <c r="J56">
-        <v>2546</v>
+        <v>2004</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>312</v>
+        <v>497</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>2524</v>
+        <v>2546</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4803,82 +4803,94 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F58" t="s">
+        <v>447</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2524</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="F59" t="s">
-        <v>461</v>
+        <v>237</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>2238</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>293</v>
+        <v>148</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F60" t="s">
+        <v>461</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2238</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -4891,63 +4903,49 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="F62" t="s">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1874</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>566</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>668</v>
+        <v>807</v>
       </c>
       <c r="F63" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="4">
-        <v>21185</v>
-      </c>
+      <c r="H63" s="4"/>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>2184</v>
+        <v>1874</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4955,10 +4953,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>155</v>
+        <v>326</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>566</v>
       </c>
       <c r="C64" t="s">
         <v>150</v>
@@ -4967,15 +4965,15 @@
         <v>498</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>815</v>
+        <v>668</v>
       </c>
       <c r="F64" t="s">
         <v>461</v>
       </c>
-      <c r="G64" s="4">
-        <v>21186</v>
-      </c>
-      <c r="H64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4">
+        <v>21185</v>
+      </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
@@ -4983,76 +4981,87 @@
         <v>2184</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
-      </c>
-      <c r="G65" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F65" t="s">
+        <v>461</v>
+      </c>
+      <c r="G65" s="4">
+        <v>21186</v>
+      </c>
       <c r="H65" s="4"/>
       <c r="I65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2184</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="F66" t="s">
-        <v>461</v>
+        <v>46</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>2104</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>168</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F67" t="s">
+        <v>461</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>2104</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -5060,13 +5069,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B68" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -5076,56 +5085,47 @@
       <c r="J68">
         <v>0</v>
       </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="F69" t="s">
-        <v>448</v>
+        <v>297</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>2453</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>549</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>549</v>
+        <v>20</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>460</v>
+        <v>323</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>751</v>
+        <v>646</v>
       </c>
       <c r="F70" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>2539</v>
+        <v>2453</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -5141,22 +5141,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>649</v>
+        <v>751</v>
       </c>
       <c r="F71" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="J71">
-        <v>2447</v>
+        <v>2539</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -5172,22 +5172,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>273</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>442</v>
+        <v>363</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F72" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="J72">
-        <v>1928</v>
+        <v>2447</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -5204,32 +5204,30 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s">
-        <v>567</v>
+        <v>261</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="F73" t="s">
         <v>461</v>
       </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4">
-        <v>21974</v>
-      </c>
+      <c r="H73" s="4"/>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>2432</v>
+        <v>1928</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -5237,10 +5235,10 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>567</v>
       </c>
       <c r="C74" t="s">
         <v>155</v>
@@ -5249,15 +5247,15 @@
         <v>502</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="F74" t="s">
         <v>461</v>
       </c>
-      <c r="G74" s="4">
-        <v>21975</v>
-      </c>
-      <c r="H74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4">
+        <v>21974</v>
+      </c>
       <c r="I74" t="b">
         <v>1</v>
       </c>
@@ -5265,118 +5263,132 @@
         <v>2432</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>812</v>
+        <v>644</v>
       </c>
       <c r="F75" t="s">
-        <v>459</v>
-      </c>
-      <c r="G75" s="4"/>
+        <v>461</v>
+      </c>
+      <c r="G75" s="4">
+        <v>21975</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" t="b">
         <v>1</v>
       </c>
       <c r="J75">
-        <v>1718</v>
+        <v>2432</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>185</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="F76" t="s">
+        <v>459</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1718</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="F77" t="s">
-        <v>447</v>
+        <v>176</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>2616</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>33</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F78" t="s">
+        <v>447</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>2616</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C79" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -5389,53 +5401,41 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="F80" t="s">
-        <v>444</v>
+        <v>258</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>2890</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F81" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="J81">
-        <v>2317</v>
+        <v>2890</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -5451,32 +5451,30 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>568</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>835</v>
+        <v>652</v>
       </c>
       <c r="F82" t="s">
         <v>447</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4">
-        <v>40468</v>
-      </c>
+      <c r="H82" s="4"/>
       <c r="I82" t="b">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>2328</v>
+        <v>2317</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -5484,27 +5482,27 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>568</v>
       </c>
       <c r="C83" t="s">
         <v>53</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>342</v>
+        <v>451</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="F83" t="s">
         <v>447</v>
       </c>
-      <c r="G83" s="4">
-        <v>40469</v>
-      </c>
-      <c r="H83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4">
+        <v>40468</v>
+      </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
@@ -5512,68 +5510,68 @@
         <v>2328</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>653</v>
+        <v>816</v>
       </c>
       <c r="F84" t="s">
-        <v>444</v>
-      </c>
-      <c r="G84" s="4"/>
+        <v>447</v>
+      </c>
+      <c r="G84" s="4">
+        <v>40469</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="J84">
-        <v>2273</v>
+        <v>2328</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>569</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>550</v>
+        <v>111</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F85" t="s">
         <v>444</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="4">
-        <v>6875</v>
-      </c>
+      <c r="H85" s="4"/>
       <c r="I85" t="b">
         <v>1</v>
       </c>
       <c r="J85">
-        <v>2892</v>
+        <v>2273</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -5581,10 +5579,10 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B86" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C86" t="s">
         <v>550</v>
@@ -5593,16 +5591,14 @@
         <v>317</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>817</v>
+        <v>654</v>
       </c>
       <c r="F86" t="s">
         <v>444</v>
       </c>
-      <c r="G86" s="4">
-        <v>14320</v>
-      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="4">
-        <v>16565</v>
+        <v>6875</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -5611,16 +5607,16 @@
         <v>2892</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N86" s="5"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>570</v>
       </c>
       <c r="C87" t="s">
         <v>550</v>
@@ -5629,14 +5625,16 @@
         <v>317</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>655</v>
+        <v>817</v>
       </c>
       <c r="F87" t="s">
         <v>444</v>
       </c>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4">
+        <v>14320</v>
+      </c>
       <c r="H87" s="4">
-        <v>34334</v>
+        <v>16565</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -5645,15 +5643,15 @@
         <v>2892</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
         <v>550</v>
@@ -5667,10 +5665,10 @@
       <c r="F88" t="s">
         <v>444</v>
       </c>
-      <c r="G88" s="4">
-        <v>34335</v>
-      </c>
-      <c r="H88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4">
+        <v>34334</v>
+      </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
@@ -5678,87 +5676,87 @@
         <v>2892</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>550</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
-      </c>
-      <c r="G89" s="4"/>
+        <v>550</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="F89" t="s">
+        <v>444</v>
+      </c>
+      <c r="G89" s="4">
+        <v>34335</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>2892</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="F90" t="s">
-        <v>444</v>
+        <v>272</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>2777</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>571</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="F91" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="4">
-        <v>24657</v>
-      </c>
+      <c r="H91" s="4"/>
       <c r="I91" t="b">
         <v>1</v>
       </c>
       <c r="J91">
-        <v>1787</v>
+        <v>2777</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -5766,10 +5764,10 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>571</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
@@ -5778,15 +5776,15 @@
         <v>375</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="F92" t="s">
         <v>461</v>
       </c>
-      <c r="G92" s="4">
-        <v>24658</v>
-      </c>
-      <c r="H92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4">
+        <v>24657</v>
+      </c>
       <c r="I92" t="b">
         <v>1</v>
       </c>
@@ -5794,55 +5792,57 @@
         <v>1787</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F93" t="s">
-        <v>447</v>
-      </c>
-      <c r="G93" s="4"/>
+        <v>461</v>
+      </c>
+      <c r="G93" s="4">
+        <v>24658</v>
+      </c>
       <c r="H93" s="4"/>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="J93">
-        <v>2141</v>
+        <v>1787</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>357</v>
+        <v>479</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>818</v>
+        <v>658</v>
       </c>
       <c r="F94" t="s">
         <v>447</v>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="J94">
-        <v>2012</v>
+        <v>2141</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -5861,32 +5861,30 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>573</v>
+        <v>110</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>503</v>
+        <v>357</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="F95" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="4">
-        <v>22096</v>
-      </c>
+      <c r="H95" s="4"/>
       <c r="I95" t="b">
         <v>1</v>
       </c>
       <c r="J95">
-        <v>2520</v>
+        <v>2012</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -5894,10 +5892,10 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C96" t="s">
         <v>107</v>
@@ -5906,16 +5904,14 @@
         <v>503</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F96" t="s">
         <v>461</v>
       </c>
-      <c r="G96" s="4">
-        <v>22097</v>
-      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="4">
-        <v>23589</v>
+        <v>22096</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -5924,15 +5920,15 @@
         <v>2520</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C97" t="s">
         <v>107</v>
@@ -5941,16 +5937,16 @@
         <v>503</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>648</v>
+        <v>810</v>
       </c>
       <c r="F97" t="s">
         <v>461</v>
       </c>
       <c r="G97" s="4">
-        <v>26233</v>
+        <v>22097</v>
       </c>
       <c r="H97" s="4">
-        <v>35565</v>
+        <v>23589</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -5959,15 +5955,15 @@
         <v>2520</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>572</v>
       </c>
       <c r="C98" t="s">
         <v>107</v>
@@ -5976,15 +5972,17 @@
         <v>503</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>811</v>
+        <v>648</v>
       </c>
       <c r="F98" t="s">
         <v>461</v>
       </c>
       <c r="G98" s="4">
-        <v>23590</v>
-      </c>
-      <c r="H98" s="4"/>
+        <v>26233</v>
+      </c>
+      <c r="H98" s="4">
+        <v>35565</v>
+      </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
@@ -5992,70 +5990,72 @@
         <v>2520</v>
       </c>
       <c r="K98">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>551</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>551</v>
+        <v>107</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="F99" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G99" s="4">
-        <v>18178</v>
-      </c>
-      <c r="H99" s="4">
-        <v>33148</v>
-      </c>
+        <v>23590</v>
+      </c>
+      <c r="H99" s="4"/>
       <c r="I99" t="b">
         <v>1</v>
       </c>
       <c r="J99">
-        <v>2839</v>
+        <v>2520</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>263</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C100" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>858</v>
+        <v>822</v>
       </c>
       <c r="F100" t="s">
-        <v>453</v>
-      </c>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+        <v>444</v>
+      </c>
+      <c r="G100" s="4">
+        <v>18178</v>
+      </c>
+      <c r="H100" s="4">
+        <v>33148</v>
+      </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1723</v>
+        <v>2839</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -6063,21 +6063,33 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C101" t="s">
-        <v>559</v>
+        <v>552</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>800</v>
+        <v>858</v>
+      </c>
+      <c r="F101" t="s">
+        <v>453</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1723</v>
+      </c>
       <c r="K101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -11101,7 +11113,9 @@
       <c r="F277" t="s">
         <v>459</v>
       </c>
-      <c r="G277" s="4"/>
+      <c r="G277" s="4">
+        <v>35796</v>
+      </c>
       <c r="H277" s="4"/>
       <c r="I277" t="b">
         <v>1</v>
@@ -11110,7 +11124,7 @@
         <v>1532</v>
       </c>
       <c r="K277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -11133,7 +11147,9 @@
         <v>459</v>
       </c>
       <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
+      <c r="H278" s="4">
+        <v>35795</v>
+      </c>
       <c r="I278" t="b">
         <v>1</v>
       </c>
@@ -11141,7 +11157,7 @@
         <v>1532</v>
       </c>
       <c r="K278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/teams_db.xlsx
+++ b/data/teams_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbrav\BravoRanking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F796C5-C2D6-49B9-B0AB-D2F5035AA6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5B1A33-0FFD-42A8-9277-3453C6A8EDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="765" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8790" yWindow="1710" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2763,7 +2763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2781,6 +2781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3153,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K376"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,7 +3174,7 @@
     <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>541</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>287</v>
       </c>
@@ -3223,11 +3224,10 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>95</v>
       </c>
@@ -3251,14 +3251,15 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>4390</v>
+      <c r="J3" s="7">
+        <v>4148</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>317</v>
       </c>
@@ -3273,11 +3274,10 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>228</v>
       </c>
@@ -3292,11 +3292,10 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -3320,14 +3319,15 @@
       <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>5001</v>
+      <c r="J6" s="7">
+        <v>5249</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>264</v>
       </c>
@@ -3342,11 +3342,10 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>165</v>
       </c>
@@ -3370,14 +3369,15 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>5430</v>
+      <c r="J8" s="7">
+        <v>5411</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>48</v>
       </c>
@@ -3392,11 +3392,10 @@
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -3420,14 +3419,15 @@
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>4683</v>
+      <c r="J10" s="7">
+        <v>4569</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>202</v>
       </c>
@@ -3451,14 +3451,15 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>5149</v>
+      <c r="J11" s="7">
+        <v>4998</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>221</v>
       </c>
@@ -3482,14 +3483,15 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3644</v>
+      <c r="J12" s="7">
+        <v>3351</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>196</v>
       </c>
@@ -3513,14 +3515,15 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>4490</v>
+      <c r="J13" s="7">
+        <v>4329</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>277</v>
       </c>
@@ -3535,11 +3538,10 @@
       <c r="I14" t="b">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3563,14 +3565,15 @@
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>5637</v>
+      <c r="J15" s="7">
+        <v>6013</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>375</v>
       </c>
@@ -3595,14 +3598,15 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>4080</v>
+      <c r="J16" s="7">
+        <v>4624</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>206</v>
       </c>
@@ -3626,14 +3630,15 @@
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>4080</v>
+      <c r="J17" s="7">
+        <v>4624</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>288</v>
       </c>
@@ -3648,11 +3653,10 @@
       <c r="I18" t="b">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>53</v>
       </c>
@@ -3676,14 +3680,15 @@
       <c r="I19" t="b">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>4969</v>
+      <c r="J19" s="7">
+        <v>4699</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>49</v>
       </c>
@@ -3698,11 +3703,10 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>43</v>
       </c>
@@ -3726,14 +3730,15 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>5144</v>
+      <c r="J21" s="7">
+        <v>5056</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3757,14 +3762,15 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>5426</v>
+      <c r="J22" s="7">
+        <v>5724</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>315</v>
       </c>
@@ -3779,11 +3785,10 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>372</v>
       </c>
@@ -3808,14 +3813,15 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>5184</v>
+      <c r="J24" s="7">
+        <v>5013</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>208</v>
       </c>
@@ -3839,14 +3845,15 @@
       <c r="I25" t="b">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>5184</v>
+      <c r="J25" s="7">
+        <v>5013</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>189</v>
       </c>
@@ -3870,14 +3877,15 @@
       <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>4213</v>
+      <c r="J26" s="7">
+        <v>3820</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>179</v>
       </c>
@@ -3901,14 +3909,15 @@
       <c r="I27" t="b">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>4776</v>
+      <c r="J27" s="7">
+        <v>4578</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>197</v>
       </c>
@@ -3932,14 +3941,15 @@
       <c r="I28" t="b">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>4508</v>
+      <c r="J28" s="7">
+        <v>4269</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>301</v>
       </c>
@@ -3954,11 +3964,10 @@
       <c r="I29" t="b">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>70</v>
       </c>
@@ -3982,14 +3991,15 @@
       <c r="I30" t="b">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>4475</v>
+      <c r="J30" s="7">
+        <v>4350</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -4004,11 +4014,10 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>68</v>
       </c>
@@ -4032,14 +4041,15 @@
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>5055</v>
+      <c r="J32" s="7">
+        <v>4996</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -4063,14 +4073,15 @@
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>5335</v>
+      <c r="J33" s="7">
+        <v>5465</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>320</v>
       </c>
@@ -4096,14 +4107,15 @@
       <c r="I34" t="b">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>4632</v>
+      <c r="J34" s="7">
+        <v>4554</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>219</v>
       </c>
@@ -4129,14 +4141,15 @@
       <c r="I35" t="b">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>4632</v>
+      <c r="J35" s="7">
+        <v>4554</v>
       </c>
       <c r="K35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>322</v>
       </c>
@@ -4162,14 +4175,15 @@
       <c r="I36" t="b">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>4866</v>
+      <c r="J36" s="7">
+        <v>4852</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>321</v>
       </c>
@@ -4197,14 +4211,15 @@
       <c r="I37" t="b">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>4866</v>
+      <c r="J37" s="7">
+        <v>4852</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>152</v>
       </c>
@@ -4230,14 +4245,15 @@
       <c r="I38" t="b">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>4866</v>
+      <c r="J38" s="7">
+        <v>4852</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>175</v>
       </c>
@@ -4261,14 +4277,15 @@
       <c r="I39" t="b">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>4720</v>
+      <c r="J39" s="7">
+        <v>4679</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>216</v>
       </c>
@@ -4292,14 +4309,15 @@
       <c r="I40" t="b">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3690</v>
+      <c r="J40" s="7">
+        <v>3536</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>312</v>
       </c>
@@ -4314,11 +4332,10 @@
       <c r="I41" t="b">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>63</v>
       </c>
@@ -4342,14 +4359,15 @@
       <c r="I42" t="b">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>4580</v>
+      <c r="J42" s="7">
+        <v>4792</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>281</v>
       </c>
@@ -4373,14 +4391,15 @@
       <c r="I43" t="b">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>4391</v>
+      <c r="J43" s="7">
+        <v>3984</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>244</v>
       </c>
@@ -4404,14 +4423,15 @@
       <c r="I44" t="b">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>5248</v>
+      <c r="J44" s="7">
+        <v>5030</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>186</v>
       </c>
@@ -4435,14 +4455,15 @@
       <c r="I45" t="b">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>4460</v>
+      <c r="J45" s="7">
+        <v>4432</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>26</v>
       </c>
@@ -4466,14 +4487,15 @@
       <c r="I46" t="b">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>5560</v>
+      <c r="J46" s="7">
+        <v>5824</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>222</v>
       </c>
@@ -4497,14 +4519,15 @@
       <c r="I47" t="b">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>4003</v>
+      <c r="J47" s="7">
+        <v>3831</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -4519,11 +4542,10 @@
       <c r="I48" t="b">
         <v>0</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J48" s="7"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>190</v>
       </c>
@@ -4547,14 +4569,15 @@
       <c r="I49" t="b">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>4575</v>
+      <c r="J49" s="7">
+        <v>3744</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -4578,14 +4601,15 @@
       <c r="I50" t="b">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>4694</v>
+      <c r="J50" s="7">
+        <v>5119</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>323</v>
       </c>
@@ -4611,14 +4635,15 @@
       <c r="I51" t="b">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>4951</v>
+      <c r="J51" s="7">
+        <v>4753</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>158</v>
       </c>
@@ -4644,14 +4669,15 @@
       <c r="I52" t="b">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>4951</v>
+      <c r="J52" s="7">
+        <v>4753</v>
       </c>
       <c r="K52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>324</v>
       </c>
@@ -4677,14 +4703,15 @@
       <c r="I53" t="b">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>4757</v>
+      <c r="J53" s="7">
+        <v>4707</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -4710,14 +4737,15 @@
       <c r="I54" t="b">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>4757</v>
+      <c r="J54" s="7">
+        <v>4707</v>
       </c>
       <c r="K54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>325</v>
       </c>
@@ -4745,14 +4773,15 @@
       <c r="I55" t="b">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>4357</v>
+      <c r="J55" s="7">
+        <v>4359</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>138</v>
       </c>
@@ -4776,14 +4805,15 @@
       <c r="I56" t="b">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>4357</v>
+      <c r="J56" s="7">
+        <v>4359</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>154</v>
       </c>
@@ -4807,14 +4837,15 @@
       <c r="I57" t="b">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>5146</v>
+      <c r="J57" s="7">
+        <v>5075</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -4838,14 +4869,15 @@
       <c r="I58" t="b">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>5124</v>
+      <c r="J58" s="7">
+        <v>5026</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>245</v>
       </c>
@@ -4860,11 +4892,10 @@
       <c r="I59" t="b">
         <v>0</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="7"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>153</v>
       </c>
@@ -4888,14 +4919,15 @@
       <c r="I60" t="b">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>4838</v>
+      <c r="J60" s="7">
+        <v>4746</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>305</v>
       </c>
@@ -4910,11 +4942,10 @@
       <c r="I61" t="b">
         <v>0</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J61" s="7"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>23</v>
       </c>
@@ -4929,11 +4960,10 @@
       <c r="I62" t="b">
         <v>0</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="7"/>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>220</v>
       </c>
@@ -4957,14 +4987,15 @@
       <c r="I63" t="b">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>4474</v>
+      <c r="J63" s="7">
+        <v>4133</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>326</v>
       </c>
@@ -4990,14 +5021,15 @@
       <c r="I64" t="b">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>4784</v>
+      <c r="J64" s="7">
+        <v>4735</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>155</v>
       </c>
@@ -5023,14 +5055,15 @@
       <c r="I65" t="b">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>4784</v>
+      <c r="J65" s="7">
+        <v>4735</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>46</v>
       </c>
@@ -5045,11 +5078,10 @@
       <c r="I66" t="b">
         <v>0</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J66" s="7"/>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>174</v>
       </c>
@@ -5073,14 +5105,15 @@
       <c r="I67" t="b">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>4583</v>
+      <c r="J67" s="7">
+        <v>4610</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67" s="7"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>296</v>
       </c>
@@ -5095,14 +5128,13 @@
       <c r="I68" t="b">
         <v>0</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
+      <c r="J68" s="7"/>
       <c r="K68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68" s="7"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>309</v>
       </c>
@@ -5117,11 +5149,10 @@
       <c r="I69" t="b">
         <v>0</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J69" s="7"/>
+      <c r="M69" s="7"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
@@ -5145,14 +5176,15 @@
       <c r="I70" t="b">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>5053</v>
+      <c r="J70" s="7">
+        <v>5355</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M70" s="7"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>50</v>
       </c>
@@ -5176,14 +5208,15 @@
       <c r="I71" t="b">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>5139</v>
+      <c r="J71" s="7">
+        <v>4822</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>84</v>
       </c>
@@ -5207,14 +5240,15 @@
       <c r="I72" t="b">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>5047</v>
+      <c r="J72" s="7">
+        <v>4933</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>273</v>
       </c>
@@ -5238,14 +5272,15 @@
       <c r="I73" t="b">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>4472</v>
+      <c r="J73" s="7">
+        <v>4240</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M73" s="7"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>327</v>
       </c>
@@ -5271,14 +5306,15 @@
       <c r="I74" t="b">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>5032</v>
+      <c r="J74" s="7">
+        <v>5205</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M74" s="7"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>160</v>
       </c>
@@ -5304,14 +5340,15 @@
       <c r="I75" t="b">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>5500</v>
+      <c r="J75" s="7">
+        <v>5205</v>
       </c>
       <c r="K75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M75" s="7"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>191</v>
       </c>
@@ -5335,14 +5372,15 @@
       <c r="I76" t="b">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3150</v>
+      <c r="J76" s="7">
+        <v>2788</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>182</v>
       </c>
@@ -5357,11 +5395,10 @@
       <c r="I77" t="b">
         <v>0</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J77" s="7"/>
+      <c r="M77" s="7"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>33</v>
       </c>
@@ -5385,14 +5422,15 @@
       <c r="I78" t="b">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>5660</v>
+      <c r="J78" s="7">
+        <v>5616</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M78" s="7"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>292</v>
       </c>
@@ -5407,11 +5445,10 @@
       <c r="I79" t="b">
         <v>0</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J79" s="7"/>
+      <c r="M79" s="7"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>270</v>
       </c>
@@ -5426,11 +5463,10 @@
       <c r="I80" t="b">
         <v>0</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J80" s="7"/>
+      <c r="M80" s="7"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>370</v>
       </c>
@@ -5455,14 +5491,15 @@
       <c r="I81" t="b">
         <v>0</v>
       </c>
-      <c r="J81">
-        <v>5490</v>
+      <c r="J81" s="7">
+        <v>5527</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M81" s="7"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>92</v>
       </c>
@@ -5486,14 +5523,15 @@
       <c r="I82" t="b">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>5490</v>
+      <c r="J82" s="7">
+        <v>5527</v>
       </c>
       <c r="K82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M82" s="7"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>76</v>
       </c>
@@ -5517,14 +5555,15 @@
       <c r="I83" t="b">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>5030</v>
+      <c r="J83" s="7">
+        <v>5008</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M83" s="7"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>328</v>
       </c>
@@ -5550,14 +5589,15 @@
       <c r="I84" t="b">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>4928</v>
+      <c r="J84" s="7">
+        <v>4927</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M84" s="7"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>54</v>
       </c>
@@ -5583,14 +5623,15 @@
       <c r="I85" t="b">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>4928</v>
+      <c r="J85" s="7">
+        <v>4927</v>
       </c>
       <c r="K85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M85" s="7"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>115</v>
       </c>
@@ -5614,14 +5655,15 @@
       <c r="I86" t="b">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>4715</v>
+      <c r="J86" s="7">
+        <v>4607</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86" s="7"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>329</v>
       </c>
@@ -5647,14 +5689,15 @@
       <c r="I87" t="b">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>5492</v>
+      <c r="J87" s="7">
+        <v>5839</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M87" s="7"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>330</v>
       </c>
@@ -5682,14 +5725,15 @@
       <c r="I88" t="b">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>5492</v>
+      <c r="J88" s="7">
+        <v>5839</v>
       </c>
       <c r="K88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88" s="7"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11</v>
       </c>
@@ -5715,14 +5759,15 @@
       <c r="I89" t="b">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>5492</v>
+      <c r="J89" s="7">
+        <v>5839</v>
       </c>
       <c r="K89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M89" s="7"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>240</v>
       </c>
@@ -5748,14 +5793,15 @@
       <c r="I90" t="b">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>5492</v>
+      <c r="J90" s="7">
+        <v>5839</v>
       </c>
       <c r="K90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M90" s="7"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>284</v>
       </c>
@@ -5770,11 +5816,10 @@
       <c r="I91" t="b">
         <v>0</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J91" s="7"/>
+      <c r="M91" s="7"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>25</v>
       </c>
@@ -5798,14 +5843,15 @@
       <c r="I92" t="b">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>5910</v>
+      <c r="J92" s="7">
+        <v>5952</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M92" s="7"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>331</v>
       </c>
@@ -5831,14 +5877,15 @@
       <c r="I93" t="b">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>4200</v>
+      <c r="J93" s="7">
+        <v>4057</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M93" s="7"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -5864,14 +5911,15 @@
       <c r="I94" t="b">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>4200</v>
+      <c r="J94" s="7">
+        <v>4057</v>
       </c>
       <c r="K94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M94" s="7"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>74</v>
       </c>
@@ -5895,14 +5943,15 @@
       <c r="I95" t="b">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>4500</v>
+      <c r="J95" s="7">
+        <v>4285</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M95" s="7"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>114</v>
       </c>
@@ -5926,14 +5975,15 @@
       <c r="I96" t="b">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>4525</v>
+      <c r="J96" s="7">
+        <v>4243</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M96" s="7"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>333</v>
       </c>
@@ -5959,14 +6009,15 @@
       <c r="I97" t="b">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>5120</v>
+      <c r="J97" s="7">
+        <v>5227</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M97" s="7"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>334</v>
       </c>
@@ -5994,14 +6045,15 @@
       <c r="I98" t="b">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>5120</v>
+      <c r="J98" s="7">
+        <v>5227</v>
       </c>
       <c r="K98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M98" s="7"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>332</v>
       </c>
@@ -6029,14 +6081,15 @@
       <c r="I99" t="b">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>5120</v>
+      <c r="J99" s="7">
+        <v>5227</v>
       </c>
       <c r="K99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M99" s="7"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>110</v>
       </c>
@@ -6062,14 +6115,15 @@
       <c r="I100" t="b">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>5120</v>
+      <c r="J100" s="7">
+        <v>5227</v>
       </c>
       <c r="K100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M100" s="7"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>128</v>
       </c>
@@ -6097,14 +6151,15 @@
       <c r="I101" t="b">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>5065</v>
+      <c r="J101" s="7">
+        <v>5258</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M101" s="7"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>263</v>
       </c>
@@ -6128,14 +6183,15 @@
       <c r="I102" t="b">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3654</v>
+      <c r="J102" s="7">
+        <v>3677</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M102" s="7"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>319</v>
       </c>
@@ -6159,14 +6215,15 @@
       <c r="I103" t="b">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>2977</v>
+      <c r="J103" s="7">
+        <v>2313</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M103" s="7"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>83</v>
       </c>
@@ -6190,14 +6247,15 @@
       <c r="I104" t="b">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>4795</v>
+      <c r="J104" s="7">
+        <v>4789</v>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104" s="7"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>335</v>
       </c>
@@ -6225,14 +6283,15 @@
       <c r="I105" t="b">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>5212</v>
+      <c r="J105" s="7">
+        <v>5415</v>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M105" s="7"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>56</v>
       </c>
@@ -6256,14 +6315,15 @@
       <c r="I106" t="b">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>5212</v>
+      <c r="J106" s="7">
+        <v>5415</v>
       </c>
       <c r="K106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M106" s="7"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>34</v>
       </c>
@@ -6287,14 +6347,15 @@
       <c r="I107" t="b">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>4929</v>
+      <c r="J107" s="7">
+        <v>4786</v>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M107" s="7"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>290</v>
       </c>
@@ -6309,11 +6370,10 @@
       <c r="I108" t="b">
         <v>0</v>
       </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J108" s="7"/>
+      <c r="M108" s="7"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6337,14 +6397,15 @@
       <c r="I109" t="b">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>5630</v>
+      <c r="J109" s="7">
+        <v>6189</v>
       </c>
       <c r="K109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M109" s="7"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>199</v>
       </c>
@@ -6368,14 +6429,15 @@
       <c r="I110" t="b">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>4742</v>
+      <c r="J110" s="7">
+        <v>4540</v>
       </c>
       <c r="K110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M110" s="7"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>239</v>
       </c>
@@ -6399,14 +6461,15 @@
       <c r="I111" t="b">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>4718</v>
+      <c r="J111" s="7">
+        <v>4701</v>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M111" s="7"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>376</v>
       </c>
@@ -6431,14 +6494,15 @@
       <c r="I112" t="b">
         <v>0</v>
       </c>
-      <c r="J112">
-        <v>4935</v>
+      <c r="J112" s="7">
+        <v>4852</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M112" s="7"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>31</v>
       </c>
@@ -6462,14 +6526,15 @@
       <c r="I113" t="b">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>4935</v>
+      <c r="J113" s="7">
+        <v>4852</v>
       </c>
       <c r="K113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M113" s="7"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>336</v>
       </c>
@@ -6495,14 +6560,15 @@
       <c r="I114" t="b">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>4430</v>
+      <c r="J114" s="7">
+        <v>4482</v>
       </c>
       <c r="K114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M114" s="7"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>185</v>
       </c>
@@ -6528,14 +6594,15 @@
       <c r="I115" t="b">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>4430</v>
+      <c r="J115" s="7">
+        <v>4482</v>
       </c>
       <c r="K115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M115" s="7"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>109</v>
       </c>
@@ -6559,14 +6626,15 @@
       <c r="I116" t="b">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>4929</v>
+      <c r="J116" s="7">
+        <v>5033</v>
       </c>
       <c r="K116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M116" s="7"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>259</v>
       </c>
@@ -6581,14 +6649,13 @@
       <c r="I117" t="b">
         <v>0</v>
       </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
+      <c r="J117" s="7"/>
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M117" s="7"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>194</v>
       </c>
@@ -6612,14 +6679,15 @@
       <c r="I118" t="b">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>4460</v>
+      <c r="J118" s="7">
+        <v>4542</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M118" s="7"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>295</v>
       </c>
@@ -6634,11 +6702,10 @@
       <c r="I119" t="b">
         <v>0</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J119" s="7"/>
+      <c r="M119" s="7"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>124</v>
       </c>
@@ -6662,14 +6729,15 @@
       <c r="I120" t="b">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>4627</v>
+      <c r="J120" s="7">
+        <v>4260</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120" s="7"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>21</v>
       </c>
@@ -6693,14 +6761,15 @@
       <c r="I121" t="b">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>4946</v>
+      <c r="J121" s="7">
+        <v>5135</v>
       </c>
       <c r="K121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M121" s="7"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>13</v>
       </c>
@@ -6724,14 +6793,15 @@
       <c r="I122" t="b">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>5130</v>
+      <c r="J122" s="7">
+        <v>5026</v>
       </c>
       <c r="K122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M122" s="7"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>81</v>
       </c>
@@ -6755,14 +6825,15 @@
       <c r="I123" t="b">
         <v>0</v>
       </c>
-      <c r="J123">
-        <v>4654</v>
+      <c r="J123" s="7">
+        <v>4448</v>
       </c>
       <c r="K123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M123" s="7"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>248</v>
       </c>
@@ -6777,11 +6848,10 @@
       <c r="I124" t="b">
         <v>0</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J124" s="7"/>
+      <c r="M124" s="7"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>253</v>
       </c>
@@ -6799,14 +6869,13 @@
       <c r="I125" t="b">
         <v>0</v>
       </c>
-      <c r="J125">
-        <v>4199</v>
-      </c>
+      <c r="J125" s="7"/>
       <c r="K125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M125" s="7"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>157</v>
       </c>
@@ -6830,14 +6899,15 @@
       <c r="I126" t="b">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>4976</v>
+      <c r="J126" s="7">
+        <v>4820</v>
       </c>
       <c r="K126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M126" s="7"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>269</v>
       </c>
@@ -6852,11 +6922,10 @@
       <c r="I127" t="b">
         <v>0</v>
       </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J127" s="7"/>
+      <c r="M127" s="7"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>45</v>
       </c>
@@ -6871,11 +6940,10 @@
       <c r="I128" t="b">
         <v>0</v>
       </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J128" s="7"/>
+      <c r="M128" s="7"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>130</v>
       </c>
@@ -6899,14 +6967,15 @@
       <c r="I129" t="b">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>4882</v>
+      <c r="J129" s="7">
+        <v>4774</v>
       </c>
       <c r="K129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M129" s="7"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>371</v>
       </c>
@@ -6931,14 +7000,15 @@
       <c r="I130" t="b">
         <v>0</v>
       </c>
-      <c r="J130">
-        <v>5288</v>
+      <c r="J130" s="7">
+        <v>5175</v>
       </c>
       <c r="K130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M130" s="7"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>207</v>
       </c>
@@ -6962,14 +7032,15 @@
       <c r="I131" t="b">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>5288</v>
+      <c r="J131" s="7">
+        <v>5175</v>
       </c>
       <c r="K131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M131" s="7"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>337</v>
       </c>
@@ -6997,14 +7068,15 @@
       <c r="I132" t="b">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>5342</v>
+      <c r="J132" s="7">
+        <v>5490</v>
       </c>
       <c r="K132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M132" s="7"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>16</v>
       </c>
@@ -7028,14 +7100,15 @@
       <c r="I133" t="b">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>5342</v>
+      <c r="J133" s="7">
+        <v>5490</v>
       </c>
       <c r="K133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M133" s="7"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>338</v>
       </c>
@@ -7061,14 +7134,15 @@
       <c r="I134" t="b">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>5309</v>
+      <c r="J134" s="7">
+        <v>5293</v>
       </c>
       <c r="K134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M134" s="7"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>121</v>
       </c>
@@ -7094,14 +7168,15 @@
       <c r="I135" t="b">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>5309</v>
+      <c r="J135" s="7">
+        <v>5293</v>
       </c>
       <c r="K135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M135" s="7"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>241</v>
       </c>
@@ -7125,14 +7200,15 @@
       <c r="I136" t="b">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>4685</v>
+      <c r="J136" s="7">
+        <v>4348</v>
       </c>
       <c r="K136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M136" s="7"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>254</v>
       </c>
@@ -7147,11 +7223,10 @@
       <c r="I137" t="b">
         <v>0</v>
       </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J137" s="7"/>
+      <c r="M137" s="7"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>278</v>
       </c>
@@ -7166,11 +7241,10 @@
       <c r="I138" t="b">
         <v>0</v>
       </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J138" s="7"/>
+      <c r="M138" s="7"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>72</v>
       </c>
@@ -7194,14 +7268,15 @@
       <c r="I139" t="b">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>4834</v>
+      <c r="J139" s="7">
+        <v>4987</v>
       </c>
       <c r="K139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M139" s="7"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>214</v>
       </c>
@@ -7219,14 +7294,13 @@
       <c r="I140" t="b">
         <v>0</v>
       </c>
-      <c r="J140">
-        <v>4624</v>
-      </c>
+      <c r="J140" s="7"/>
       <c r="K140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M140" s="7"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>87</v>
       </c>
@@ -7250,14 +7324,15 @@
       <c r="I141" t="b">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>4955</v>
+      <c r="J141" s="7">
+        <v>4719</v>
       </c>
       <c r="K141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M141" s="7"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>77</v>
       </c>
@@ -7281,14 +7356,15 @@
       <c r="I142" t="b">
         <v>0</v>
       </c>
-      <c r="J142">
-        <v>4742</v>
+      <c r="J142" s="7">
+        <v>4753</v>
       </c>
       <c r="K142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M142" s="7"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>201</v>
       </c>
@@ -7312,14 +7388,15 @@
       <c r="I143" t="b">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3350</v>
+      <c r="J143" s="7">
+        <v>2854</v>
       </c>
       <c r="K143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M143" s="7"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>35</v>
       </c>
@@ -7343,14 +7420,15 @@
       <c r="I144" t="b">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>4964</v>
+      <c r="J144" s="7">
+        <v>4862</v>
       </c>
       <c r="K144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M144" s="7"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>234</v>
       </c>
@@ -7365,11 +7443,10 @@
       <c r="I145" t="b">
         <v>0</v>
       </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J145" s="7"/>
+      <c r="M145" s="7"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>164</v>
       </c>
@@ -7393,14 +7470,15 @@
       <c r="I146" t="b">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>5100</v>
+      <c r="J146" s="7">
+        <v>5102</v>
       </c>
       <c r="K146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M146" s="7"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>339</v>
       </c>
@@ -7426,14 +7504,15 @@
       <c r="I147" t="b">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>4894</v>
+      <c r="J147" s="7">
+        <v>4770</v>
       </c>
       <c r="K147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M147" s="7"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>134</v>
       </c>
@@ -7459,14 +7538,15 @@
       <c r="I148" t="b">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>4894</v>
+      <c r="J148" s="7">
+        <v>4770</v>
       </c>
       <c r="K148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M148" s="7"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>340</v>
       </c>
@@ -7492,14 +7572,15 @@
       <c r="I149" t="b">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>4744</v>
+      <c r="J149" s="7">
+        <v>4766</v>
       </c>
       <c r="K149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M149" s="7"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>66</v>
       </c>
@@ -7525,14 +7606,15 @@
       <c r="I150" t="b">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>4744</v>
+      <c r="J150" s="7">
+        <v>4766</v>
       </c>
       <c r="K150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M150" s="7"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>58</v>
       </c>
@@ -7556,14 +7638,15 @@
       <c r="I151" t="b">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>4902</v>
+      <c r="J151" s="7">
+        <v>4623</v>
       </c>
       <c r="K151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M151" s="7"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>249</v>
       </c>
@@ -7578,11 +7661,10 @@
       <c r="I152" t="b">
         <v>0</v>
       </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J152" s="7"/>
+      <c r="M152" s="7"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>318</v>
       </c>
@@ -7597,11 +7679,10 @@
       <c r="I153" t="b">
         <v>0</v>
       </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J153" s="7"/>
+      <c r="M153" s="7"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>65</v>
       </c>
@@ -7625,14 +7706,15 @@
       <c r="I154" t="b">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>4530</v>
+      <c r="J154" s="7">
+        <v>4567</v>
       </c>
       <c r="K154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M154" s="7"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>131</v>
       </c>
@@ -7656,14 +7738,15 @@
       <c r="I155" t="b">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>4788</v>
+      <c r="J155" s="7">
+        <v>4738</v>
       </c>
       <c r="K155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M155" s="7"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -7687,14 +7770,15 @@
       <c r="I156" t="b">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>5555</v>
+      <c r="J156" s="7">
+        <v>5771</v>
       </c>
       <c r="K156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M156" s="7"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>101</v>
       </c>
@@ -7718,14 +7802,15 @@
       <c r="I157" t="b">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>4931</v>
+      <c r="J157" s="7">
+        <v>4742</v>
       </c>
       <c r="K157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M157" s="7"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>341</v>
       </c>
@@ -7751,14 +7836,15 @@
       <c r="I158" t="b">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>4867</v>
+      <c r="J158" s="7">
+        <v>4880</v>
       </c>
       <c r="K158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M158" s="7"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>88</v>
       </c>
@@ -7784,14 +7870,15 @@
       <c r="I159" t="b">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>4867</v>
+      <c r="J159" s="7">
+        <v>4880</v>
       </c>
       <c r="K159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M159" s="7"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>342</v>
       </c>
@@ -7817,14 +7904,15 @@
       <c r="I160" t="b">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>5100</v>
+      <c r="J160" s="7">
+        <v>4894</v>
       </c>
       <c r="K160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M160" s="7"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>79</v>
       </c>
@@ -7850,14 +7938,15 @@
       <c r="I161" t="b">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>5100</v>
+      <c r="J161" s="7">
+        <v>4894</v>
       </c>
       <c r="K161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M161" s="7"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>96</v>
       </c>
@@ -7881,14 +7970,15 @@
       <c r="I162" t="b">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>5180</v>
+      <c r="J162" s="7">
+        <v>4890</v>
       </c>
       <c r="K162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M162" s="7"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7912,14 +8002,15 @@
       <c r="I163" t="b">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>5164</v>
+      <c r="J163" s="7">
+        <v>5155</v>
       </c>
       <c r="K163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M163" s="7"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>275</v>
       </c>
@@ -7934,11 +8025,10 @@
       <c r="I164" t="b">
         <v>0</v>
       </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J164" s="7"/>
+      <c r="M164" s="7"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>60</v>
       </c>
@@ -7962,14 +8052,15 @@
       <c r="I165" t="b">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>4275</v>
+      <c r="J165" s="7">
+        <v>4994</v>
       </c>
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M165" s="7"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>242</v>
       </c>
@@ -7984,11 +8075,10 @@
       <c r="I166" t="b">
         <v>0</v>
       </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J166" s="7"/>
+      <c r="M166" s="7"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>235</v>
       </c>
@@ -8003,11 +8093,10 @@
       <c r="I167" t="b">
         <v>0</v>
       </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J167" s="7"/>
+      <c r="M167" s="7"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>78</v>
       </c>
@@ -8031,14 +8120,15 @@
       <c r="I168" t="b">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>5105</v>
+      <c r="J168" s="7">
+        <v>5065</v>
       </c>
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M168" s="7"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>19</v>
       </c>
@@ -8062,14 +8152,15 @@
       <c r="I169" t="b">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>5188</v>
+      <c r="J169" s="7">
+        <v>5441</v>
       </c>
       <c r="K169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M169" s="7"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>159</v>
       </c>
@@ -8093,14 +8184,15 @@
       <c r="I170" t="b">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>5338</v>
+      <c r="J170" s="7">
+        <v>5248</v>
       </c>
       <c r="K170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M170" s="7"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>59</v>
       </c>
@@ -8124,14 +8216,15 @@
       <c r="I171" t="b">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>4917</v>
+      <c r="J171" s="7">
+        <v>4677</v>
       </c>
       <c r="K171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M171" s="7"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>28</v>
       </c>
@@ -8155,14 +8248,15 @@
       <c r="I172" t="b">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>4340</v>
+      <c r="J172" s="7">
+        <v>4217</v>
       </c>
       <c r="K172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M172" s="7"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>233</v>
       </c>
@@ -8177,11 +8271,10 @@
       <c r="I173" t="b">
         <v>0</v>
       </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J173" s="7"/>
+      <c r="M173" s="7"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>167</v>
       </c>
@@ -8205,14 +8298,15 @@
       <c r="I174" t="b">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>4470</v>
+      <c r="J174" s="7">
+        <v>4551</v>
       </c>
       <c r="K174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M174" s="7"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>307</v>
       </c>
@@ -8227,11 +8321,10 @@
       <c r="I175" t="b">
         <v>0</v>
       </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J175" s="7"/>
+      <c r="M175" s="7"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>302</v>
       </c>
@@ -8246,11 +8339,10 @@
       <c r="I176" t="b">
         <v>0</v>
       </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J176" s="7"/>
+      <c r="M176" s="7"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>209</v>
       </c>
@@ -8274,14 +8366,15 @@
       <c r="I177" t="b">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>4994</v>
+      <c r="J177" s="7">
+        <v>4930</v>
       </c>
       <c r="K177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M177" s="7"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>61</v>
       </c>
@@ -8305,14 +8398,15 @@
       <c r="I178" t="b">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>4724</v>
+      <c r="J178" s="7">
+        <v>4858</v>
       </c>
       <c r="K178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M178" s="7"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>137</v>
       </c>
@@ -8327,11 +8421,10 @@
       <c r="I179" t="b">
         <v>0</v>
       </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J179" s="7"/>
+      <c r="M179" s="7"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>211</v>
       </c>
@@ -8355,14 +8448,15 @@
       <c r="I180" t="b">
         <v>0</v>
       </c>
-      <c r="J180">
-        <v>2441</v>
+      <c r="J180" s="7">
+        <v>2088</v>
       </c>
       <c r="K180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M180" s="7"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>267</v>
       </c>
@@ -8386,14 +8480,15 @@
       <c r="I181" t="b">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>4968</v>
+      <c r="J181" s="7">
+        <v>4937</v>
       </c>
       <c r="K181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M181" s="7"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>343</v>
       </c>
@@ -8405,14 +8500,13 @@
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
-      <c r="J182">
-        <v>0</v>
-      </c>
+      <c r="J182" s="7"/>
       <c r="K182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M182" s="7"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>166</v>
       </c>
@@ -8436,14 +8530,15 @@
       <c r="I183" t="b">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>4630</v>
+      <c r="J183" s="7">
+        <v>4698</v>
       </c>
       <c r="K183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M183" s="7"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>141</v>
       </c>
@@ -8467,14 +8562,15 @@
       <c r="I184" t="b">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>4755</v>
+      <c r="J184" s="7">
+        <v>4527</v>
       </c>
       <c r="K184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M184" s="7"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>172</v>
       </c>
@@ -8498,14 +8594,15 @@
       <c r="I185" t="b">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>4726</v>
+      <c r="J185" s="7">
+        <v>3986</v>
       </c>
       <c r="K185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M185" s="7"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>374</v>
       </c>
@@ -8530,14 +8627,15 @@
       <c r="I186" t="b">
         <v>0</v>
       </c>
-      <c r="J186">
-        <v>4828</v>
+      <c r="J186" s="7">
+        <v>4801</v>
       </c>
       <c r="K186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M186" s="7"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>44</v>
       </c>
@@ -8561,14 +8659,15 @@
       <c r="I187" t="b">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>4828</v>
+      <c r="J187" s="7">
+        <v>4801</v>
       </c>
       <c r="K187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M187" s="7"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>93</v>
       </c>
@@ -8592,14 +8691,15 @@
       <c r="I188" t="b">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>4711</v>
+      <c r="J188" s="7">
+        <v>4903</v>
       </c>
       <c r="K188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M188" s="7"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8623,14 +8723,15 @@
       <c r="I189" t="b">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>4657</v>
+      <c r="J189" s="7">
+        <v>4608</v>
       </c>
       <c r="K189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M189" s="7"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>170</v>
       </c>
@@ -8654,14 +8755,15 @@
       <c r="I190" t="b">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>4902</v>
+      <c r="J190" s="7">
+        <v>4829</v>
       </c>
       <c r="K190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M190" s="7"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>149</v>
       </c>
@@ -8685,14 +8787,15 @@
       <c r="I191" t="b">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>4895</v>
+      <c r="J191" s="7">
+        <v>4889</v>
       </c>
       <c r="K191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M191" s="7"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>215</v>
       </c>
@@ -8716,14 +8819,15 @@
       <c r="I192" t="b">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>4611</v>
+      <c r="J192" s="7">
+        <v>4370</v>
       </c>
       <c r="K192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M192" s="7"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>377</v>
       </c>
@@ -8748,14 +8852,15 @@
       <c r="I193" t="b">
         <v>0</v>
       </c>
-      <c r="J193">
-        <v>4490</v>
+      <c r="J193" s="7">
+        <v>4500</v>
       </c>
       <c r="K193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M193" s="7"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>51</v>
       </c>
@@ -8779,14 +8884,15 @@
       <c r="I194" t="b">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>4490</v>
+      <c r="J194" s="7">
+        <v>4500</v>
       </c>
       <c r="K194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M194" s="7"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>22</v>
       </c>
@@ -8810,14 +8916,15 @@
       <c r="I195" t="b">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>4724</v>
+      <c r="J195" s="7">
+        <v>4769</v>
       </c>
       <c r="K195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M195" s="7"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>113</v>
       </c>
@@ -8841,14 +8948,15 @@
       <c r="I196" t="b">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3867</v>
+      <c r="J196" s="7">
+        <v>4129</v>
       </c>
       <c r="K196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M196" s="7"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>104</v>
       </c>
@@ -8872,14 +8980,15 @@
       <c r="I197" t="b">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>4729</v>
+      <c r="J197" s="7">
+        <v>4724</v>
       </c>
       <c r="K197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M197" s="7"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>289</v>
       </c>
@@ -8894,11 +9003,10 @@
       <c r="I198" t="b">
         <v>0</v>
       </c>
-      <c r="J198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J198" s="7"/>
+      <c r="M198" s="7"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>344</v>
       </c>
@@ -8924,14 +9032,15 @@
       <c r="I199" t="b">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>4120</v>
+      <c r="J199" s="7">
+        <v>4501</v>
       </c>
       <c r="K199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M199" s="7"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>150</v>
       </c>
@@ -8957,14 +9066,15 @@
       <c r="I200" t="b">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>4120</v>
+      <c r="J200" s="7">
+        <v>4501</v>
       </c>
       <c r="K200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M200" s="7"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>345</v>
       </c>
@@ -8990,14 +9100,15 @@
       <c r="I201" t="b">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>4796</v>
+      <c r="J201" s="7">
+        <v>4752</v>
       </c>
       <c r="K201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M201" s="7"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>133</v>
       </c>
@@ -9023,14 +9134,15 @@
       <c r="I202" t="b">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>4796</v>
+      <c r="J202" s="7">
+        <v>4752</v>
       </c>
       <c r="K202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M202" s="7"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>246</v>
       </c>
@@ -9054,14 +9166,15 @@
       <c r="I203" t="b">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3710</v>
+      <c r="J203" s="7">
+        <v>3667</v>
       </c>
       <c r="K203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M203" s="7"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>346</v>
       </c>
@@ -9087,14 +9200,15 @@
       <c r="I204" t="b">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>5075</v>
+      <c r="J204" s="7">
+        <v>5005</v>
       </c>
       <c r="K204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M204" s="7"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>347</v>
       </c>
@@ -9122,14 +9236,15 @@
       <c r="I205" t="b">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>5075</v>
+      <c r="J205" s="7">
+        <v>5005</v>
       </c>
       <c r="K205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M205" s="7"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>156</v>
       </c>
@@ -9155,14 +9270,15 @@
       <c r="I206" t="b">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>5075</v>
+      <c r="J206" s="7">
+        <v>5005</v>
       </c>
       <c r="K206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M206" s="7"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>147</v>
       </c>
@@ -9186,14 +9302,15 @@
       <c r="I207" t="b">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>4850</v>
+      <c r="J207" s="7">
+        <v>4773</v>
       </c>
       <c r="K207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M207" s="7"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>91</v>
       </c>
@@ -9205,11 +9322,10 @@
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
-      <c r="J208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J208" s="7"/>
+      <c r="M208" s="7"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>313</v>
       </c>
@@ -9224,11 +9340,10 @@
       <c r="I209" t="b">
         <v>0</v>
       </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J209" s="7"/>
+      <c r="M209" s="7"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>73</v>
       </c>
@@ -9252,14 +9367,15 @@
       <c r="I210" t="b">
         <v>0</v>
       </c>
-      <c r="J210">
-        <v>4984</v>
+      <c r="J210" s="7">
+        <v>4831</v>
       </c>
       <c r="K210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M210" s="7"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>306</v>
       </c>
@@ -9274,11 +9390,10 @@
       <c r="I211" t="b">
         <v>0</v>
       </c>
-      <c r="J211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J211" s="7"/>
+      <c r="M211" s="7"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>314</v>
       </c>
@@ -9293,11 +9408,10 @@
       <c r="I212" t="b">
         <v>0</v>
       </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J212" s="7"/>
+      <c r="M212" s="7"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>183</v>
       </c>
@@ -9321,14 +9435,15 @@
       <c r="I213" t="b">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3940</v>
+      <c r="J213" s="7">
+        <v>4217</v>
       </c>
       <c r="K213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M213" s="7"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>105</v>
       </c>
@@ -9352,14 +9467,15 @@
       <c r="I214" t="b">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>5100</v>
+      <c r="J214" s="7">
+        <v>5322</v>
       </c>
       <c r="K214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M214" s="7"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>261</v>
       </c>
@@ -9377,14 +9493,13 @@
       <c r="I215" t="b">
         <v>0</v>
       </c>
-      <c r="J215">
-        <v>4861</v>
-      </c>
+      <c r="J215" s="7"/>
       <c r="K215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M215" s="7"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>274</v>
       </c>
@@ -9399,11 +9514,10 @@
       <c r="I216" t="b">
         <v>0</v>
       </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J216" s="7"/>
+      <c r="M216" s="7"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>47</v>
       </c>
@@ -9427,14 +9541,15 @@
       <c r="I217" t="b">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>5005</v>
+      <c r="J217" s="7">
+        <v>5216</v>
       </c>
       <c r="K217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M217" s="7"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>142</v>
       </c>
@@ -9458,14 +9573,15 @@
       <c r="I218" t="b">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>4975</v>
+      <c r="J218" s="7">
+        <v>4909</v>
       </c>
       <c r="K218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M218" s="7"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>260</v>
       </c>
@@ -9483,14 +9599,13 @@
       <c r="I219" t="b">
         <v>0</v>
       </c>
-      <c r="J219">
-        <v>4541</v>
-      </c>
+      <c r="J219" s="7"/>
       <c r="K219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M219" s="7"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>97</v>
       </c>
@@ -9514,14 +9629,15 @@
       <c r="I220" t="b">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3890</v>
+      <c r="J220" s="7">
+        <v>3692</v>
       </c>
       <c r="K220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M220" s="7"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>103</v>
       </c>
@@ -9545,14 +9661,15 @@
       <c r="I221" t="b">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>5152</v>
+      <c r="J221" s="7">
+        <v>5087</v>
       </c>
       <c r="K221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M221" s="7"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>231</v>
       </c>
@@ -9576,14 +9693,15 @@
       <c r="I222" t="b">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3730</v>
+      <c r="J222" s="7">
+        <v>3566</v>
       </c>
       <c r="K222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M222" s="7"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>151</v>
       </c>
@@ -9607,14 +9725,15 @@
       <c r="I223" t="b">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>5215</v>
+      <c r="J223" s="7">
+        <v>5276</v>
       </c>
       <c r="K223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M223" s="7"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>200</v>
       </c>
@@ -9638,14 +9757,15 @@
       <c r="I224" t="b">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>4863</v>
+      <c r="J224" s="7">
+        <v>4786</v>
       </c>
       <c r="K224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M224" s="7"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>348</v>
       </c>
@@ -9671,14 +9791,15 @@
       <c r="I225" t="b">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>4729</v>
+      <c r="J225" s="7">
+        <v>4516</v>
       </c>
       <c r="K225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M225" s="7"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>125</v>
       </c>
@@ -9704,14 +9825,15 @@
       <c r="I226" t="b">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>4729</v>
+      <c r="J226" s="7">
+        <v>4516</v>
       </c>
       <c r="K226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M226" s="7"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -9735,14 +9857,15 @@
       <c r="I227" t="b">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>4595</v>
+      <c r="J227" s="7">
+        <v>4649</v>
       </c>
       <c r="K227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M227" s="7"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>195</v>
       </c>
@@ -9766,14 +9889,15 @@
       <c r="I228" t="b">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>4449</v>
+      <c r="J228" s="7">
+        <v>4106</v>
       </c>
       <c r="K228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M228" s="7"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>15</v>
       </c>
@@ -9797,14 +9921,15 @@
       <c r="I229" t="b">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>5508</v>
+      <c r="J229" s="7">
+        <v>5619</v>
       </c>
       <c r="K229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M229" s="7"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>122</v>
       </c>
@@ -9828,14 +9953,15 @@
       <c r="I230" t="b">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>4705</v>
+      <c r="J230" s="7">
+        <v>4830</v>
       </c>
       <c r="K230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M230" s="7"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>42</v>
       </c>
@@ -9859,14 +9985,15 @@
       <c r="I231" t="b">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>4914</v>
+      <c r="J231" s="7">
+        <v>4791</v>
       </c>
       <c r="K231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M231" s="7"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>71</v>
       </c>
@@ -9890,14 +10017,15 @@
       <c r="I232" t="b">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3975</v>
+      <c r="J232" s="7">
+        <v>3961</v>
       </c>
       <c r="K232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M232" s="7"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>176</v>
       </c>
@@ -9921,14 +10049,15 @@
       <c r="I233" t="b">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>4770</v>
+      <c r="J233" s="7">
+        <v>4554</v>
       </c>
       <c r="K233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M233" s="7"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>117</v>
       </c>
@@ -9952,14 +10081,15 @@
       <c r="I234" t="b">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>5297</v>
+      <c r="J234" s="7">
+        <v>5294</v>
       </c>
       <c r="K234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M234" s="7"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>217</v>
       </c>
@@ -9983,14 +10113,15 @@
       <c r="I235" t="b">
         <v>0</v>
       </c>
-      <c r="J235">
-        <v>1398</v>
+      <c r="J235" s="7">
+        <v>1321</v>
       </c>
       <c r="K235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M235" s="7"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>145</v>
       </c>
@@ -10014,14 +10145,15 @@
       <c r="I236" t="b">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>5347</v>
+      <c r="J236" s="7">
+        <v>5453</v>
       </c>
       <c r="K236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M236" s="7"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>349</v>
       </c>
@@ -10047,14 +10179,15 @@
       <c r="I237" t="b">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>5153</v>
+      <c r="J237" s="7">
+        <v>5106</v>
       </c>
       <c r="K237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M237" s="7"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>243</v>
       </c>
@@ -10080,14 +10213,15 @@
       <c r="I238" t="b">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>5153</v>
+      <c r="J238" s="7">
+        <v>5106</v>
       </c>
       <c r="K238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M238" s="7"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>143</v>
       </c>
@@ -10115,14 +10249,15 @@
       <c r="I239" t="b">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>4804</v>
+      <c r="J239" s="7">
+        <v>4838</v>
       </c>
       <c r="K239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M239" s="7"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>192</v>
       </c>
@@ -10150,14 +10285,15 @@
       <c r="I240" t="b">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3675</v>
+      <c r="J240" s="7">
+        <v>3906</v>
       </c>
       <c r="K240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M240" s="7"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>205</v>
       </c>
@@ -10175,14 +10311,13 @@
       <c r="I241" t="b">
         <v>0</v>
       </c>
-      <c r="J241">
-        <v>5142</v>
-      </c>
+      <c r="J241" s="7"/>
       <c r="K241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M241" s="7"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4</v>
       </c>
@@ -10206,14 +10341,15 @@
       <c r="I242" t="b">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>5200</v>
+      <c r="J242" s="7">
+        <v>5426</v>
       </c>
       <c r="K242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M242" s="7"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>251</v>
       </c>
@@ -10237,14 +10373,15 @@
       <c r="I243" t="b">
         <v>0</v>
       </c>
-      <c r="J243">
-        <v>2985</v>
+      <c r="J243" s="7">
+        <v>2969</v>
       </c>
       <c r="K243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M243" s="7"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>18</v>
       </c>
@@ -10268,14 +10405,15 @@
       <c r="I244" t="b">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>4855</v>
+      <c r="J244" s="7">
+        <v>5094</v>
       </c>
       <c r="K244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M244" s="7"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>271</v>
       </c>
@@ -10290,11 +10428,10 @@
       <c r="I245" t="b">
         <v>0</v>
       </c>
-      <c r="J245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J245" s="7"/>
+      <c r="M245" s="7"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>180</v>
       </c>
@@ -10318,14 +10455,15 @@
       <c r="I246" t="b">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3775</v>
+      <c r="J246" s="7">
+        <v>4099</v>
       </c>
       <c r="K246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M246" s="7"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>258</v>
       </c>
@@ -10340,11 +10478,10 @@
       <c r="I247" t="b">
         <v>0</v>
       </c>
-      <c r="J247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J247" s="7"/>
+      <c r="M247" s="7"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>276</v>
       </c>
@@ -10359,11 +10496,10 @@
       <c r="I248" t="b">
         <v>0</v>
       </c>
-      <c r="J248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J248" s="7"/>
+      <c r="M248" s="7"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>126</v>
       </c>
@@ -10387,14 +10523,15 @@
       <c r="I249" t="b">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>4712</v>
+      <c r="J249" s="7">
+        <v>4735</v>
       </c>
       <c r="K249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M249" s="7"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>223</v>
       </c>
@@ -10418,14 +10555,15 @@
       <c r="I250" t="b">
         <v>0</v>
       </c>
-      <c r="J250">
-        <v>575</v>
+      <c r="J250" s="7">
+        <v>528</v>
       </c>
       <c r="K250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M250" s="7"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>177</v>
       </c>
@@ -10449,14 +10587,15 @@
       <c r="I251" t="b">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>4535</v>
+      <c r="J251" s="7">
+        <v>4602</v>
       </c>
       <c r="K251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M251" s="7"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>89</v>
       </c>
@@ -10480,14 +10619,15 @@
       <c r="I252" t="b">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>4873</v>
+      <c r="J252" s="7">
+        <v>4662</v>
       </c>
       <c r="K252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M252" s="7"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>300</v>
       </c>
@@ -10502,11 +10642,10 @@
       <c r="I253" t="b">
         <v>0</v>
       </c>
-      <c r="J253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J253" s="7"/>
+      <c r="M253" s="7"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>168</v>
       </c>
@@ -10530,14 +10669,15 @@
       <c r="I254" t="b">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>4547</v>
+      <c r="J254" s="7">
+        <v>4098</v>
       </c>
       <c r="K254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M254" s="7"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>30</v>
       </c>
@@ -10561,14 +10701,15 @@
       <c r="I255" t="b">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>5352</v>
+      <c r="J255" s="7">
+        <v>5673</v>
       </c>
       <c r="K255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M255" s="7"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>308</v>
       </c>
@@ -10583,11 +10724,10 @@
       <c r="I256" t="b">
         <v>0</v>
       </c>
-      <c r="J256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J256" s="7"/>
+      <c r="M256" s="7"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>64</v>
       </c>
@@ -10611,14 +10751,15 @@
       <c r="I257" t="b">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>5140</v>
+      <c r="J257" s="7">
+        <v>5334</v>
       </c>
       <c r="K257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M257" s="7"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>29</v>
       </c>
@@ -10642,14 +10783,15 @@
       <c r="I258" t="b">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>4872</v>
+      <c r="J258" s="7">
+        <v>4503</v>
       </c>
       <c r="K258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M258" s="7"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>37</v>
       </c>
@@ -10673,14 +10815,15 @@
       <c r="I259" t="b">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>5313</v>
+      <c r="J259" s="7">
+        <v>5320</v>
       </c>
       <c r="K259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M259" s="7"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>39</v>
       </c>
@@ -10704,14 +10847,15 @@
       <c r="I260" t="b">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>5361</v>
+      <c r="J260" s="7">
+        <v>5418</v>
       </c>
       <c r="K260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M260" s="7"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>32</v>
       </c>
@@ -10726,11 +10870,10 @@
       <c r="I261" t="b">
         <v>0</v>
       </c>
-      <c r="J261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J261" s="7"/>
+      <c r="M261" s="7"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>94</v>
       </c>
@@ -10754,14 +10897,15 @@
       <c r="I262" t="b">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>4080</v>
+      <c r="J262" s="7">
+        <v>3861</v>
       </c>
       <c r="K262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M262" s="7"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>187</v>
       </c>
@@ -10785,14 +10929,15 @@
       <c r="I263" t="b">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>4430</v>
+      <c r="J263" s="7">
+        <v>4570</v>
       </c>
       <c r="K263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M263" s="7"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>283</v>
       </c>
@@ -10807,11 +10952,10 @@
       <c r="I264" t="b">
         <v>0</v>
       </c>
-      <c r="J264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J264" s="7"/>
+      <c r="M264" s="7"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>268</v>
       </c>
@@ -10826,11 +10970,10 @@
       <c r="I265" t="b">
         <v>0</v>
       </c>
-      <c r="J265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J265" s="7"/>
+      <c r="M265" s="7"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>350</v>
       </c>
@@ -10854,14 +10997,15 @@
       <c r="I266" t="b">
         <v>0</v>
       </c>
-      <c r="J266">
-        <v>4444</v>
+      <c r="J266" s="7">
+        <v>4421</v>
       </c>
       <c r="K266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M266" s="7"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>256</v>
       </c>
@@ -10876,11 +11020,10 @@
       <c r="I267" t="b">
         <v>0</v>
       </c>
-      <c r="J267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J267" s="7"/>
+      <c r="M267" s="7"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>294</v>
       </c>
@@ -10895,11 +11038,10 @@
       <c r="I268" t="b">
         <v>0</v>
       </c>
-      <c r="J268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J268" s="7"/>
+      <c r="M268" s="7"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>41</v>
       </c>
@@ -10923,14 +11065,15 @@
       <c r="I269" t="b">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>5130</v>
+      <c r="J269" s="7">
+        <v>5346</v>
       </c>
       <c r="K269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M269" s="7"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>351</v>
       </c>
@@ -10958,14 +11101,15 @@
       <c r="I270" t="b">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>4840</v>
+      <c r="J270" s="7">
+        <v>5415</v>
       </c>
       <c r="K270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M270" s="7"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>352</v>
       </c>
@@ -10993,14 +11137,15 @@
       <c r="I271" t="b">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>4840</v>
+      <c r="J271" s="7">
+        <v>5415</v>
       </c>
       <c r="K271">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M271" s="7"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>24</v>
       </c>
@@ -11024,14 +11169,15 @@
       <c r="I272" t="b">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>4840</v>
+      <c r="J272" s="7">
+        <v>5415</v>
       </c>
       <c r="K272">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M272" s="7"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>204</v>
       </c>
@@ -11055,14 +11201,15 @@
       <c r="I273" t="b">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>4443</v>
+      <c r="J273" s="7">
+        <v>4543</v>
       </c>
       <c r="K273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M273" s="7"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>255</v>
       </c>
@@ -11080,14 +11227,13 @@
       <c r="I274" t="b">
         <v>0</v>
       </c>
-      <c r="J274">
-        <v>0</v>
-      </c>
+      <c r="J274" s="7"/>
       <c r="K274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M274" s="7"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>135</v>
       </c>
@@ -11115,11 +11261,10 @@
       <c r="I275" t="b">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>4930</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J275" s="7"/>
+      <c r="M275" s="7"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>353</v>
       </c>
@@ -11134,14 +11279,13 @@
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
-      <c r="J276">
-        <v>0</v>
-      </c>
+      <c r="J276" s="7"/>
       <c r="K276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M276" s="7"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>310</v>
       </c>
@@ -11156,11 +11300,10 @@
       <c r="I277" t="b">
         <v>0</v>
       </c>
-      <c r="J277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J277" s="7"/>
+      <c r="M277" s="7"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>86</v>
       </c>
@@ -11184,14 +11327,15 @@
       <c r="I278" t="b">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>4380</v>
+      <c r="J278" s="7">
+        <v>4278</v>
       </c>
       <c r="K278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M278" s="7"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>354</v>
       </c>
@@ -11206,14 +11350,15 @@
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
-      <c r="J279">
-        <v>4380</v>
+      <c r="J279" s="7">
+        <v>4278</v>
       </c>
       <c r="K279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M279" s="7"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>82</v>
       </c>
@@ -11237,14 +11382,15 @@
       <c r="I280" t="b">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>4623</v>
+      <c r="J280" s="7">
+        <v>4433</v>
       </c>
       <c r="K280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M280" s="7"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>229</v>
       </c>
@@ -11268,14 +11414,15 @@
       <c r="I281" t="b">
         <v>0</v>
       </c>
-      <c r="J281">
-        <v>4483</v>
+      <c r="J281" s="7">
+        <v>4120</v>
       </c>
       <c r="K281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M281" s="7"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -11293,14 +11440,13 @@
       <c r="I282" t="b">
         <v>0</v>
       </c>
-      <c r="J282">
-        <v>4328</v>
-      </c>
+      <c r="J282" s="7"/>
       <c r="K282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M282" s="7"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>364</v>
       </c>
@@ -11326,14 +11472,15 @@
       <c r="I283" t="b">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3050</v>
+      <c r="J283" s="7">
+        <v>2922</v>
       </c>
       <c r="K283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M283" s="7"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>213</v>
       </c>
@@ -11359,14 +11506,15 @@
       <c r="I284" t="b">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3050</v>
+      <c r="J284" s="7">
+        <v>2922</v>
       </c>
       <c r="K284">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M284" s="7"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>230</v>
       </c>
@@ -11390,14 +11538,15 @@
       <c r="I285" t="b">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>4498</v>
+      <c r="J285" s="7">
+        <v>4346</v>
       </c>
       <c r="K285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M285" s="7"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>203</v>
       </c>
@@ -11421,14 +11570,15 @@
       <c r="I286" t="b">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>4583</v>
+      <c r="J286" s="7">
+        <v>4390</v>
       </c>
       <c r="K286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M286" s="7"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>272</v>
       </c>
@@ -11443,11 +11593,10 @@
       <c r="I287" t="b">
         <v>0</v>
       </c>
-      <c r="J287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J287" s="7"/>
+      <c r="M287" s="7"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>265</v>
       </c>
@@ -11462,11 +11611,10 @@
       <c r="I288" t="b">
         <v>0</v>
       </c>
-      <c r="J288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J288" s="7"/>
+      <c r="M288" s="7"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>173</v>
       </c>
@@ -11490,14 +11638,15 @@
       <c r="I289" t="b">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>4025</v>
+      <c r="J289" s="7">
+        <v>4709</v>
       </c>
       <c r="K289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M289" s="7"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -11521,14 +11670,15 @@
       <c r="I290" t="b">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>5570</v>
+      <c r="J290" s="7">
+        <v>6386</v>
       </c>
       <c r="K290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M290" s="7"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>163</v>
       </c>
@@ -11552,14 +11702,15 @@
       <c r="I291" t="b">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>5124</v>
+      <c r="J291" s="7">
+        <v>5057</v>
       </c>
       <c r="K291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M291" s="7"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>36</v>
       </c>
@@ -11585,14 +11736,15 @@
       <c r="I292" t="b">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>5275</v>
+      <c r="J292" s="7">
+        <v>5293</v>
       </c>
       <c r="K292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M292" s="7"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>355</v>
       </c>
@@ -11620,14 +11772,15 @@
       <c r="I293" t="b">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>5275</v>
+      <c r="J293" s="7">
+        <v>5293</v>
       </c>
       <c r="K293">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M293" s="7"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>119</v>
       </c>
@@ -11653,14 +11806,15 @@
       <c r="I294" t="b">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>5275</v>
+      <c r="J294" s="7">
+        <v>5293</v>
       </c>
       <c r="K294">
         <v>3</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M294" s="7"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>198</v>
       </c>
@@ -11684,14 +11838,15 @@
       <c r="I295" t="b">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>4634</v>
+      <c r="J295" s="7">
+        <v>4500</v>
       </c>
       <c r="K295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M295" s="7"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>227</v>
       </c>
@@ -11706,11 +11861,10 @@
       <c r="I296" t="b">
         <v>0</v>
       </c>
-      <c r="J296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J296" s="7"/>
+      <c r="M296" s="7"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>116</v>
       </c>
@@ -11734,14 +11888,15 @@
       <c r="I297" t="b">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>4945</v>
+      <c r="J297" s="7">
+        <v>4934</v>
       </c>
       <c r="K297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M297" s="7"/>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>75</v>
       </c>
@@ -11756,11 +11911,10 @@
       <c r="I298" t="b">
         <v>0</v>
       </c>
-      <c r="J298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J298" s="7"/>
+      <c r="M298" s="7"/>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>132</v>
       </c>
@@ -11784,14 +11938,15 @@
       <c r="I299" t="b">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>4693</v>
+      <c r="J299" s="7">
+        <v>4590</v>
       </c>
       <c r="K299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M299" s="7"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>356</v>
       </c>
@@ -11806,14 +11961,13 @@
       </c>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
-      <c r="J300">
-        <v>0</v>
-      </c>
+      <c r="J300" s="7"/>
       <c r="K300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M300" s="7"/>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>224</v>
       </c>
@@ -11837,14 +11991,15 @@
       <c r="I301" t="b">
         <v>0</v>
       </c>
-      <c r="J301">
-        <v>4320</v>
+      <c r="J301" s="7">
+        <v>3959</v>
       </c>
       <c r="K301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M301" s="7"/>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>373</v>
       </c>
@@ -11869,14 +12024,15 @@
       <c r="I302" t="b">
         <v>0</v>
       </c>
-      <c r="J302">
-        <v>5262</v>
+      <c r="J302" s="7">
+        <v>5230</v>
       </c>
       <c r="K302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M302" s="7"/>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>90</v>
       </c>
@@ -11900,14 +12056,15 @@
       <c r="I303" t="b">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>5262</v>
+      <c r="J303" s="7">
+        <v>5230</v>
       </c>
       <c r="K303">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M303" s="7"/>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>232</v>
       </c>
@@ -11931,14 +12088,15 @@
       <c r="I304" t="b">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>5189</v>
+      <c r="J304" s="7">
+        <v>5119</v>
       </c>
       <c r="K304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M304" s="7"/>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>169</v>
       </c>
@@ -11962,14 +12120,15 @@
       <c r="I305" t="b">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>4230</v>
+      <c r="J305" s="7">
+        <v>4053</v>
       </c>
       <c r="K305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M305" s="7"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>171</v>
       </c>
@@ -11993,14 +12152,15 @@
       <c r="I306" t="b">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>4518</v>
+      <c r="J306" s="7">
+        <v>4471</v>
       </c>
       <c r="K306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M306" s="7"/>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>297</v>
       </c>
@@ -12018,11 +12178,10 @@
       <c r="I307" t="b">
         <v>0</v>
       </c>
-      <c r="J307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J307" s="7"/>
+      <c r="M307" s="7"/>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>57</v>
       </c>
@@ -12046,14 +12205,15 @@
       <c r="I308" t="b">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>5179</v>
+      <c r="J308" s="7">
+        <v>5191</v>
       </c>
       <c r="K308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M308" s="7"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>357</v>
       </c>
@@ -12079,14 +12239,15 @@
       <c r="I309" t="b">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>5171</v>
+      <c r="J309" s="7">
+        <v>4990</v>
       </c>
       <c r="K309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M309" s="7"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>111</v>
       </c>
@@ -12112,14 +12273,15 @@
       <c r="I310" t="b">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>5171</v>
+      <c r="J310" s="7">
+        <v>4990</v>
       </c>
       <c r="K310">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M310" s="7"/>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>291</v>
       </c>
@@ -12134,11 +12296,10 @@
       <c r="I311" t="b">
         <v>0</v>
       </c>
-      <c r="J311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J311" s="7"/>
+      <c r="M311" s="7"/>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>286</v>
       </c>
@@ -12162,14 +12323,15 @@
       <c r="I312" t="b">
         <v>1</v>
       </c>
-      <c r="J312">
-        <v>4704</v>
+      <c r="J312" s="7">
+        <v>4511</v>
       </c>
       <c r="K312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M312" s="7"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>38</v>
       </c>
@@ -12193,14 +12355,15 @@
       <c r="I313" t="b">
         <v>1</v>
       </c>
-      <c r="J313">
-        <v>5700</v>
+      <c r="J313" s="7">
+        <v>5770</v>
       </c>
       <c r="K313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M313" s="7"/>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>358</v>
       </c>
@@ -12226,14 +12389,15 @@
       <c r="I314" t="b">
         <v>1</v>
       </c>
-      <c r="J314">
-        <v>4472</v>
+      <c r="J314" s="7">
+        <v>4160</v>
       </c>
       <c r="K314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M314" s="7"/>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>127</v>
       </c>
@@ -12259,14 +12423,15 @@
       <c r="I315" t="b">
         <v>1</v>
       </c>
-      <c r="J315">
-        <v>4472</v>
+      <c r="J315" s="7">
+        <v>4160</v>
       </c>
       <c r="K315">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M315" s="7"/>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>162</v>
       </c>
@@ -12290,14 +12455,15 @@
       <c r="I316" t="b">
         <v>1</v>
       </c>
-      <c r="J316">
-        <v>4824</v>
+      <c r="J316" s="7">
+        <v>4586</v>
       </c>
       <c r="K316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M316" s="7"/>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>146</v>
       </c>
@@ -12321,14 +12487,15 @@
       <c r="I317" t="b">
         <v>1</v>
       </c>
-      <c r="J317">
-        <v>4957</v>
+      <c r="J317" s="7">
+        <v>5196</v>
       </c>
       <c r="K317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M317" s="7"/>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>80</v>
       </c>
@@ -12352,14 +12519,15 @@
       <c r="I318" t="b">
         <v>1</v>
       </c>
-      <c r="J318">
-        <v>4795</v>
+      <c r="J318" s="7">
+        <v>4714</v>
       </c>
       <c r="K318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M318" s="7"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>304</v>
       </c>
@@ -12374,11 +12542,10 @@
       <c r="I319" t="b">
         <v>0</v>
       </c>
-      <c r="J319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J319" s="7"/>
+      <c r="M319" s="7"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17</v>
       </c>
@@ -12402,14 +12569,15 @@
       <c r="I320" t="b">
         <v>1</v>
       </c>
-      <c r="J320">
-        <v>5419</v>
+      <c r="J320" s="7">
+        <v>5435</v>
       </c>
       <c r="K320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M320" s="7"/>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>14</v>
       </c>
@@ -12433,14 +12601,15 @@
       <c r="I321" t="b">
         <v>1</v>
       </c>
-      <c r="J321">
-        <v>5239</v>
+      <c r="J321" s="7">
+        <v>5337</v>
       </c>
       <c r="K321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M321" s="7"/>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>118</v>
       </c>
@@ -12464,14 +12633,15 @@
       <c r="I322" t="b">
         <v>1</v>
       </c>
-      <c r="J322">
-        <v>4495</v>
+      <c r="J322" s="7">
+        <v>4813</v>
       </c>
       <c r="K322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M322" s="7"/>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>293</v>
       </c>
@@ -12486,11 +12656,10 @@
       <c r="I323" t="b">
         <v>0</v>
       </c>
-      <c r="J323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J323" s="7"/>
+      <c r="M323" s="7"/>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>129</v>
       </c>
@@ -12514,14 +12683,15 @@
       <c r="I324" t="b">
         <v>1</v>
       </c>
-      <c r="J324">
-        <v>4745</v>
+      <c r="J324" s="7">
+        <v>4718</v>
       </c>
       <c r="K324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M324" s="7"/>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>120</v>
       </c>
@@ -12545,14 +12715,15 @@
       <c r="I325" t="b">
         <v>1</v>
       </c>
-      <c r="J325">
-        <v>4815</v>
+      <c r="J325" s="7">
+        <v>4974</v>
       </c>
       <c r="K325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M325" s="7"/>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>237</v>
       </c>
@@ -12576,14 +12747,15 @@
       <c r="I326" t="b">
         <v>1</v>
       </c>
-      <c r="J326">
-        <v>4860</v>
+      <c r="J326" s="7">
+        <v>4805</v>
       </c>
       <c r="K326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M326" s="7"/>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>285</v>
       </c>
@@ -12598,11 +12770,10 @@
       <c r="I327" t="b">
         <v>0</v>
       </c>
-      <c r="J327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J327" s="7"/>
+      <c r="M327" s="7"/>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>359</v>
       </c>
@@ -12628,14 +12799,15 @@
       <c r="I328" t="b">
         <v>1</v>
       </c>
-      <c r="J328">
-        <v>4795</v>
+      <c r="J328" s="7">
+        <v>4574</v>
       </c>
       <c r="K328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M328" s="7"/>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>98</v>
       </c>
@@ -12661,14 +12833,15 @@
       <c r="I329" t="b">
         <v>1</v>
       </c>
-      <c r="J329">
-        <v>4795</v>
+      <c r="J329" s="7">
+        <v>4574</v>
       </c>
       <c r="K329">
         <v>2</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M329" s="7"/>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>139</v>
       </c>
@@ -12692,14 +12865,15 @@
       <c r="I330" t="b">
         <v>1</v>
       </c>
-      <c r="J330">
-        <v>4435</v>
+      <c r="J330" s="7">
+        <v>4357</v>
       </c>
       <c r="K330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M330" s="7"/>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>257</v>
       </c>
@@ -12714,14 +12888,13 @@
       <c r="I331" t="b">
         <v>0</v>
       </c>
-      <c r="J331">
-        <v>4320</v>
-      </c>
+      <c r="J331" s="7"/>
       <c r="K331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M331" s="7"/>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>316</v>
       </c>
@@ -12736,11 +12909,10 @@
       <c r="I332" t="b">
         <v>0</v>
       </c>
-      <c r="J332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J332" s="7"/>
+      <c r="M332" s="7"/>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>360</v>
       </c>
@@ -12766,14 +12938,15 @@
       <c r="I333" t="b">
         <v>1</v>
       </c>
-      <c r="J333">
-        <v>5015</v>
+      <c r="J333" s="7">
+        <v>5010</v>
       </c>
       <c r="K333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M333" s="7"/>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>144</v>
       </c>
@@ -12799,14 +12972,15 @@
       <c r="I334" t="b">
         <v>1</v>
       </c>
-      <c r="J334">
-        <v>5015</v>
+      <c r="J334" s="7">
+        <v>5010</v>
       </c>
       <c r="K334">
         <v>2</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M334" s="7"/>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>210</v>
       </c>
@@ -12830,14 +13004,15 @@
       <c r="I335" t="b">
         <v>1</v>
       </c>
-      <c r="J335">
-        <v>3289</v>
+      <c r="J335" s="7">
+        <v>2896</v>
       </c>
       <c r="K335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M335" s="7"/>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>67</v>
       </c>
@@ -12861,14 +13036,15 @@
       <c r="I336" t="b">
         <v>1</v>
       </c>
-      <c r="J336">
-        <v>5026</v>
+      <c r="J336" s="7">
+        <v>4920</v>
       </c>
       <c r="K336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M336" s="7"/>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>148</v>
       </c>
@@ -12892,14 +13068,15 @@
       <c r="I337" t="b">
         <v>1</v>
       </c>
-      <c r="J337">
-        <v>5156</v>
+      <c r="J337" s="7">
+        <v>5046</v>
       </c>
       <c r="K337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M337" s="7"/>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>52</v>
       </c>
@@ -12923,14 +13100,15 @@
       <c r="I338" t="b">
         <v>1</v>
       </c>
-      <c r="J338">
-        <v>5156</v>
+      <c r="J338" s="7">
+        <v>5277</v>
       </c>
       <c r="K338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M338" s="7"/>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>236</v>
       </c>
@@ -12954,14 +13132,15 @@
       <c r="I339" t="b">
         <v>1</v>
       </c>
-      <c r="J339">
-        <v>4871</v>
+      <c r="J339" s="7">
+        <v>4950</v>
       </c>
       <c r="K339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M339" s="7"/>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>252</v>
       </c>
@@ -12985,14 +13164,15 @@
       <c r="I340" t="b">
         <v>1</v>
       </c>
-      <c r="J340">
-        <v>3771</v>
+      <c r="J340" s="7">
+        <v>3513</v>
       </c>
       <c r="K340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M340" s="7"/>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>212</v>
       </c>
@@ -13016,14 +13196,15 @@
       <c r="I341" t="b">
         <v>0</v>
       </c>
-      <c r="J341">
-        <v>3181</v>
+      <c r="J341" s="7">
+        <v>2908</v>
       </c>
       <c r="K341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M341" s="7"/>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>279</v>
       </c>
@@ -13038,11 +13219,10 @@
       <c r="I342" t="b">
         <v>0</v>
       </c>
-      <c r="J342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J342" s="7"/>
+      <c r="M342" s="7"/>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>62</v>
       </c>
@@ -13066,14 +13246,15 @@
       <c r="I343" t="b">
         <v>1</v>
       </c>
-      <c r="J343">
-        <v>5165</v>
+      <c r="J343" s="7">
+        <v>5297</v>
       </c>
       <c r="K343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M343" s="7"/>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>69</v>
       </c>
@@ -13097,14 +13278,15 @@
       <c r="I344" t="b">
         <v>1</v>
       </c>
-      <c r="J344">
-        <v>5333</v>
+      <c r="J344" s="7">
+        <v>5144</v>
       </c>
       <c r="K344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M344" s="7"/>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>193</v>
       </c>
@@ -13128,14 +13310,15 @@
       <c r="I345" t="b">
         <v>1</v>
       </c>
-      <c r="J345">
-        <v>4769</v>
+      <c r="J345" s="7">
+        <v>4588</v>
       </c>
       <c r="K345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M345" s="7"/>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>299</v>
       </c>
@@ -13150,11 +13333,10 @@
       <c r="I346" t="b">
         <v>0</v>
       </c>
-      <c r="J346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J346" s="7"/>
+      <c r="M346" s="7"/>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>5</v>
       </c>
@@ -13178,14 +13360,15 @@
       <c r="I347" t="b">
         <v>1</v>
       </c>
-      <c r="J347">
-        <v>5105</v>
+      <c r="J347" s="7">
+        <v>5031</v>
       </c>
       <c r="K347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M347" s="7"/>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>7</v>
       </c>
@@ -13209,14 +13392,15 @@
       <c r="I348" t="b">
         <v>1</v>
       </c>
-      <c r="J348">
-        <v>5548</v>
+      <c r="J348" s="7">
+        <v>5890</v>
       </c>
       <c r="K348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M348" s="7"/>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>250</v>
       </c>
@@ -13240,14 +13424,15 @@
       <c r="I349" t="b">
         <v>1</v>
       </c>
-      <c r="J349">
-        <v>3465</v>
+      <c r="J349" s="7">
+        <v>3282</v>
       </c>
       <c r="K349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M349" s="7"/>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>238</v>
       </c>
@@ -13271,14 +13456,15 @@
       <c r="I350" t="b">
         <v>1</v>
       </c>
-      <c r="J350">
-        <v>5100</v>
+      <c r="J350" s="7">
+        <v>5093</v>
       </c>
       <c r="K350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M350" s="7"/>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>361</v>
       </c>
@@ -13304,14 +13490,15 @@
       <c r="I351" t="b">
         <v>1</v>
       </c>
-      <c r="J351">
-        <v>4489</v>
+      <c r="J351" s="7">
+        <v>4132</v>
       </c>
       <c r="K351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M351" s="7"/>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>123</v>
       </c>
@@ -13337,14 +13524,15 @@
       <c r="I352" t="b">
         <v>1</v>
       </c>
-      <c r="J352">
-        <v>4489</v>
+      <c r="J352" s="7">
+        <v>4132</v>
       </c>
       <c r="K352">
         <v>2</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M352" s="7"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>262</v>
       </c>
@@ -13362,11 +13550,10 @@
       <c r="I353" t="b">
         <v>0</v>
       </c>
-      <c r="J353">
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J353" s="7"/>
+      <c r="M353" s="7"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>85</v>
       </c>
@@ -13390,14 +13577,15 @@
       <c r="I354" t="b">
         <v>1</v>
       </c>
-      <c r="J354">
-        <v>4935</v>
+      <c r="J354" s="7">
+        <v>4835</v>
       </c>
       <c r="K354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M354" s="7"/>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>362</v>
       </c>
@@ -13425,14 +13613,15 @@
       <c r="I355" t="b">
         <v>1</v>
       </c>
-      <c r="J355">
-        <v>4739</v>
+      <c r="J355" s="7">
+        <v>4819</v>
       </c>
       <c r="K355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M355" s="7"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>112</v>
       </c>
@@ -13456,14 +13645,15 @@
       <c r="I356" t="b">
         <v>1</v>
       </c>
-      <c r="J356">
-        <v>4739</v>
+      <c r="J356" s="7">
+        <v>4819</v>
       </c>
       <c r="K356">
         <v>2</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M356" s="7"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>140</v>
       </c>
@@ -13478,11 +13668,12 @@
       </c>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
-      <c r="J357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J357" s="7">
+        <v>4819</v>
+      </c>
+      <c r="M357" s="7"/>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>3</v>
       </c>
@@ -13506,14 +13697,15 @@
       <c r="I358" t="b">
         <v>1</v>
       </c>
-      <c r="J358">
-        <v>5156</v>
+      <c r="J358" s="7">
+        <v>5642</v>
       </c>
       <c r="K358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M358" s="7"/>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>363</v>
       </c>
@@ -13531,14 +13723,13 @@
       <c r="I359" t="b">
         <v>0</v>
       </c>
-      <c r="J359">
-        <v>4329</v>
-      </c>
+      <c r="J359" s="7"/>
       <c r="K359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M359" s="7"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>181</v>
       </c>
@@ -13556,11 +13747,10 @@
       <c r="I360" t="b">
         <v>0</v>
       </c>
-      <c r="J360">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J360" s="7"/>
+      <c r="M360" s="7"/>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>298</v>
       </c>
@@ -13575,11 +13765,10 @@
       <c r="I361" t="b">
         <v>0</v>
       </c>
-      <c r="J361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J361" s="7"/>
+      <c r="M361" s="7"/>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>184</v>
       </c>
@@ -13594,11 +13783,10 @@
       <c r="I362" t="b">
         <v>0</v>
       </c>
-      <c r="J362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J362" s="7"/>
+      <c r="M362" s="7"/>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>266</v>
       </c>
@@ -13613,11 +13801,10 @@
       <c r="I363" t="b">
         <v>0</v>
       </c>
-      <c r="J363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J363" s="7"/>
+      <c r="M363" s="7"/>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>282</v>
       </c>
@@ -13632,11 +13819,10 @@
       <c r="I364" t="b">
         <v>0</v>
       </c>
-      <c r="J364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J364" s="7"/>
+      <c r="M364" s="7"/>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>366</v>
       </c>
@@ -13662,14 +13848,15 @@
       <c r="I365" t="b">
         <v>1</v>
       </c>
-      <c r="J365">
-        <v>4572</v>
+      <c r="J365" s="7">
+        <v>4451</v>
       </c>
       <c r="K365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M365" s="7"/>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -13697,14 +13884,15 @@
       <c r="I366" t="b">
         <v>1</v>
       </c>
-      <c r="J366">
-        <v>4572</v>
+      <c r="J366" s="7">
+        <v>4451</v>
       </c>
       <c r="K366">
         <v>2</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M366" s="7"/>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>178</v>
       </c>
@@ -13730,14 +13918,15 @@
       <c r="I367" t="b">
         <v>1</v>
       </c>
-      <c r="J367">
-        <v>4572</v>
+      <c r="J367" s="7">
+        <v>4451</v>
       </c>
       <c r="K367">
         <v>3</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M367" s="7"/>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>226</v>
       </c>
@@ -13752,11 +13941,10 @@
       <c r="I368" t="b">
         <v>0</v>
       </c>
-      <c r="J368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J368" s="7"/>
+      <c r="M368" s="7"/>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>303</v>
       </c>
@@ -13771,11 +13959,10 @@
       <c r="I369" t="b">
         <v>0</v>
       </c>
-      <c r="J369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J369" s="7"/>
+      <c r="M369" s="7"/>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>311</v>
       </c>
@@ -13790,11 +13977,10 @@
       <c r="I370" t="b">
         <v>0</v>
       </c>
-      <c r="J370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J370" s="7"/>
+      <c r="M370" s="7"/>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>367</v>
       </c>
@@ -13820,14 +14006,15 @@
       <c r="I371" t="b">
         <v>1</v>
       </c>
-      <c r="J371">
-        <v>5095</v>
+      <c r="J371" s="7">
+        <v>5183</v>
       </c>
       <c r="K371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M371" s="7"/>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>100</v>
       </c>
@@ -13853,14 +14040,15 @@
       <c r="I372" t="b">
         <v>1</v>
       </c>
-      <c r="J372">
-        <v>5095</v>
+      <c r="J372" s="7">
+        <v>5183</v>
       </c>
       <c r="K372">
         <v>2</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M372" s="7"/>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>107</v>
       </c>
@@ -13884,14 +14072,15 @@
       <c r="I373" t="b">
         <v>0</v>
       </c>
-      <c r="J373">
-        <v>4364</v>
+      <c r="J373" s="7">
+        <v>4308</v>
       </c>
       <c r="K373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M373" s="7"/>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>368</v>
       </c>
@@ -13917,14 +14106,15 @@
       <c r="I374" t="b">
         <v>1</v>
       </c>
-      <c r="J374">
-        <v>4964</v>
+      <c r="J374" s="7">
+        <v>5018</v>
       </c>
       <c r="K374">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M374" s="7"/>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>369</v>
       </c>
@@ -13952,14 +14142,15 @@
       <c r="I375" t="b">
         <v>1</v>
       </c>
-      <c r="J375">
-        <v>4964</v>
+      <c r="J375" s="7">
+        <v>5018</v>
       </c>
       <c r="K375">
         <v>2</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M375" s="7"/>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>99</v>
       </c>
@@ -13985,12 +14176,13 @@
       <c r="I376" t="b">
         <v>1</v>
       </c>
-      <c r="J376">
-        <v>4964</v>
+      <c r="J376" s="7">
+        <v>5018</v>
       </c>
       <c r="K376">
         <v>3</v>
       </c>
+      <c r="M376" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J376">
@@ -14000,5 +14192,27 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{E9667C74-DAFB-46F8-B801-E6E3F50C8CEC}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J2:J376</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>